--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7071200</v>
+        <v>15356700</v>
       </c>
       <c r="E8" s="3">
-        <v>14629600</v>
+        <v>7133100</v>
       </c>
       <c r="F8" s="3">
-        <v>7449900</v>
+        <v>14757600</v>
       </c>
       <c r="G8" s="3">
-        <v>14654600</v>
+        <v>7515100</v>
       </c>
       <c r="H8" s="3">
-        <v>6807700</v>
+        <v>14801300</v>
       </c>
       <c r="I8" s="3">
-        <v>13821500</v>
+        <v>6867200</v>
       </c>
       <c r="J8" s="3">
+        <v>13942400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7068900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14172900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6513000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13673100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7267100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14498800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12073200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12165300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11314700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>12794800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12178700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12270900</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11413600</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11652900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11155500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>12109800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2556500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2489300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2506800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2561900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2578800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2530400</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2528800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2520000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2517600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2388900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>77000</v>
+        <v>274000</v>
       </c>
       <c r="E14" s="3">
-        <v>175500</v>
+        <v>77600</v>
       </c>
       <c r="F14" s="3">
-        <v>74700</v>
+        <v>177000</v>
       </c>
       <c r="G14" s="3">
-        <v>244300</v>
+        <v>75300</v>
       </c>
       <c r="H14" s="3">
-        <v>68300</v>
+        <v>246400</v>
       </c>
       <c r="I14" s="3">
-        <v>194200</v>
+        <v>68900</v>
       </c>
       <c r="J14" s="3">
+        <v>195900</v>
+      </c>
+      <c r="K14" s="3">
         <v>75200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>236500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>80700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>247600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>76400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>575000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>566300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>561000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>580100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>571300</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>565900</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>548700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>1376200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>473000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13817000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13959500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>13061500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>14697700</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13937800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14079700</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13175700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>13524100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>13015600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>13922000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>812600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>695000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>760000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>658900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>819700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>721600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>766700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>648700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>657500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>576800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-123500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-76200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-48800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-59900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-54800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1819400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1136900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1655000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>2113900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1860500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1658400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1695400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1426000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1433700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1491400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>160100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>155300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>224000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>220900</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>199800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>199700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>210300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>586700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>411400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>528600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>705200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>591800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>411900</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>533200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>400100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>397900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>311600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>108600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>83700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>135800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>109500</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>83400</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>124700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>119000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>77100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>478100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>327800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>392800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>484100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>482200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>328500</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>396200</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>275400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>278800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>234500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>381300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>239300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>224300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>384700</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>165900</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>226300</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>219000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>130400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>287900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1631,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>4400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>16400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-53300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>29000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>123500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>76200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-253400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>88800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>48800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>59900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>54800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>363900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>234900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>175400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>325100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>367100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>163900</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>223400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>146800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>234600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>363900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>234900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>175400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>325100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>367100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>163900</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>223400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>146800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>234600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4211400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5003000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3216500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>6472000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4248200</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5046800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3244600</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>7028000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>5414300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>6481100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>925600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>583600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>796700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>913200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>933700</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>588700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>803700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>675300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>791700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>500400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10120000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9893000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>10081300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>10346900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10208500</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9979600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10169400</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>9525100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>9987800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>10195700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>924100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>898200</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>826800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>877200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>932200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>906000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>834000</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>809600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>771300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>844700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>987100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>451300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>832300</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>995700</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>455200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>839600</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>625200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>286600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>155200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>17168200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>16829000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>15753600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>18747600</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>17318300</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>16976300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15891300</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>18663300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>17251600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>18177000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4007600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4002800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3943700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>4140700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4042600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4037800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3978200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>4431700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>4581000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>5157400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>9804000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>19034400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7966300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>10349900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9889800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>19285600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8036000</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>16368500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7829600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>8424700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>10530100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15628800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>10481700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>11095900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10622200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15765500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10573400</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>10555800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>10748100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>11313800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1233600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1196900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1154500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1098600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1244400</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1190800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1164600</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1113200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1394000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1472300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>42743600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>43077300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>39299800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>45432600</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>43117300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>43522300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>39643400</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>42948300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>41804200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>44545200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>11178400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>12039500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>11089000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>13018300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11276100</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12182900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11186000</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>11352300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>10772200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>11972700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5118100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5280600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5370900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>6880000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5635500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5797700</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5417800</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>5403400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>5262100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5876700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1565400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1290800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>982900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>978600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1106500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>812900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>991500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>1068400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>875500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>935800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>17861900</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>18611000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>17442800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>20876800</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>18018100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>18793600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17595300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>17824000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>16909800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>18785200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>11945100</v>
       </c>
       <c r="E61" s="3">
-        <v>12870800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>12983300</v>
       </c>
       <c r="G61" s="3">
-        <v>12074700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12265100</v>
       </c>
       <c r="I61" s="3">
-        <v>9887800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>9974300</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>10611100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>10132200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9794300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4549300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4666000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4597400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>4770700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4589100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4686800</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4637600</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4826000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>5316800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>5546400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>36569800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>36616500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>33137300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>38860500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>36889500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>37021100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>33427000</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>34555600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>33611000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>35449100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4191600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-3881600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4239200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-3885900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-4228300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-3931900</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-4276200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6173800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>6460700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6162500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>6572200</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6227800</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6501200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6216400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>8392700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>8193200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>9096100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>363900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>234900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>175400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>325100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>367100</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>163900</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>223400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>146800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>234600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1035700</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>565400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>971200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1201500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1044800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1025600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>979700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>839800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>861100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>969400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>587500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1979800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>647100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>2827400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>592700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2495400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>652700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>2223600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>526500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>2396300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-738500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1004200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-632200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1111400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1005600</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-637800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-560400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-403100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-444800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1061400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-670800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-448700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1040600</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-676600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-457400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-957800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-45000</v>
       </c>
       <c r="E96" s="3">
-        <v>-681200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-687200</v>
       </c>
       <c r="G96" s="3">
-        <v>-45600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-46000</v>
       </c>
       <c r="I96" s="3">
-        <v>-604900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-610200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-60600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-590700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-24200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1069900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>666200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3425800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-724300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1079200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>672000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3455700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>671000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-921700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>827700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
         <v>6500</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-32100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>17400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-920700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1836700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-3718900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>2258200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-928700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1852800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3751400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1762000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-886000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>2335900</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15356700</v>
+        <v>14682200</v>
       </c>
       <c r="E8" s="3">
-        <v>7133100</v>
+        <v>7895900</v>
       </c>
       <c r="F8" s="3">
-        <v>14757600</v>
+        <v>16400700</v>
       </c>
       <c r="G8" s="3">
-        <v>7515100</v>
+        <v>7618000</v>
       </c>
       <c r="H8" s="3">
-        <v>14801300</v>
+        <v>15760800</v>
       </c>
       <c r="I8" s="3">
+        <v>8026000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>15807600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6867200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13942400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7068900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14172900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6513000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13673100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7267100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14498800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12794800</v>
+        <v>12556800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>12178700</v>
+        <v>13664600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>12270900</v>
+        <v>13006700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>13105100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11413600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11652900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11155500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>12109800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2561900</v>
+        <v>2125300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>2578800</v>
+        <v>2736000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>2530400</v>
+        <v>2754100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>2702500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2528800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2520000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2517600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2388900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>274000</v>
+        <v>148900</v>
       </c>
       <c r="E14" s="3">
-        <v>77600</v>
+        <v>72000</v>
       </c>
       <c r="F14" s="3">
-        <v>177000</v>
+        <v>292600</v>
       </c>
       <c r="G14" s="3">
-        <v>75300</v>
+        <v>82900</v>
       </c>
       <c r="H14" s="3">
-        <v>246400</v>
+        <v>189000</v>
       </c>
       <c r="I14" s="3">
+        <v>80400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>263200</v>
+      </c>
+      <c r="K14" s="3">
         <v>68900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>195900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>75200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>236500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>80700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>247600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>76400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,46 +1090,52 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>580100</v>
+        <v>633300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>571300</v>
+        <v>619500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>610100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>565900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>548700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>1376200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>473000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14697700</v>
+        <v>14383700</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>13937800</v>
+        <v>15697000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>14079700</v>
+        <v>14885400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>15036900</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>13175700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>13524100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>13015600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>13922000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>658900</v>
+        <v>298400</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>819700</v>
+        <v>703700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>721600</v>
+        <v>875500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>770700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>766700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>648700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>657500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>576800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>253400</v>
+        <v>-81400</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>270600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-88800</v>
+        <v>-4300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-50900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-48800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-59900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2113900</v>
+        <v>1492600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>1860500</v>
+        <v>2257600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>1658400</v>
+        <v>1987000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1695400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1426000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1433700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1491400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>207100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+        <v>225500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10800</v>
       </c>
       <c r="F22" s="3">
-        <v>224000</v>
+        <v>221200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>220900</v>
+        <v>239200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="3">
+        <v>235900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>182500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>199800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>199700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>210300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>705200</v>
+        <v>-8400</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>591800</v>
+        <v>753200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>411900</v>
+        <v>632000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>439900</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>533200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>400100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>397900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>311600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+        <v>65300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>73200</v>
       </c>
       <c r="F24" s="3">
-        <v>109500</v>
+        <v>236100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>83400</v>
+        <v>117000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>137000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>124700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>119000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>77100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>484100</v>
+        <v>-73700</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>482200</v>
+        <v>517000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>328500</v>
+        <v>515000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>396200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>275400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>278800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>234500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>431400</v>
+        <v>-152100</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>384700</v>
+        <v>460700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>165900</v>
+        <v>410800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>226300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>219000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>130400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>287900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,55 +1750,67 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-106300</v>
+        <v>-10600</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-17600</v>
+        <v>-113600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-2000</v>
+        <v>-18800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-49400</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>4400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>16400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-53300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-253400</v>
+        <v>81400</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>-270600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>88800</v>
+        <v>4300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>50900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>48800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>59900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>54800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>325100</v>
+        <v>-162800</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>367100</v>
+        <v>347200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>163900</v>
+        <v>392000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>176900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>223400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>146800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>234600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>325100</v>
+        <v>-162800</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>367100</v>
+        <v>347200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>163900</v>
+        <v>392000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>176900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>223400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>146800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>234600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6472000</v>
+        <v>8314500</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>4248200</v>
+        <v>6912000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>5046800</v>
+        <v>4537000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3">
+        <v>5389900</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>3244600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>7028000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>5414300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>6481100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>913200</v>
+        <v>1401100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>933700</v>
+        <v>975300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>588700</v>
+        <v>997200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3">
+        <v>628700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>803700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>675300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>791700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>500400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10346900</v>
+        <v>10779100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>10208500</v>
+        <v>11050300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>9979600</v>
+        <v>10902600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3">
+        <v>10658000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>10169400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>9525100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>9987800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>10195700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>877200</v>
+        <v>946300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="3">
-        <v>932200</v>
+        <v>936900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>906000</v>
+        <v>995500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J44" s="3">
+        <v>967600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>834000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>809600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>771300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>844700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138200</v>
+        <v>282100</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>995700</v>
+        <v>147600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>455200</v>
+        <v>1063400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="3">
+        <v>486200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>839600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>625200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>286600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>155200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18747600</v>
+        <v>21723100</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>17318300</v>
+        <v>20022100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>16976300</v>
+        <v>18495700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="3">
+        <v>18130400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>15891300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>18663300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>17251600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>18177000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4140700</v>
+        <v>4324300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>4042600</v>
+        <v>4422200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>4037800</v>
+        <v>4317500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J47" s="3">
+        <v>4312300</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>3978200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>4431700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>4581000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>5157400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10349900</v>
+        <v>10639900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>9889800</v>
+        <v>11053500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>19285600</v>
+        <v>10562100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>20596800</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>8036000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>16368500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7829600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>8424700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11095900</v>
+        <v>11974400</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>10622200</v>
+        <v>11850300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>15765500</v>
+        <v>11344400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="3">
+        <v>16837300</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>10573400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>10555800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>10748100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>11313800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1098600</v>
+        <v>1212100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>1244400</v>
+        <v>1173300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>1190800</v>
+        <v>1329000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>1271700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1164600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1113200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1394000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1472300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45432600</v>
+        <v>49873900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>43117300</v>
+        <v>48521400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>43522300</v>
+        <v>46048600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="3">
+        <v>46481100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>39643400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>42948300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>41804200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>44545200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13018300</v>
+        <v>12745500</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>11276100</v>
+        <v>13903300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>12182900</v>
+        <v>12042800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>13011200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>11186000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>11352300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>10772200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>11972700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6880000</v>
+        <v>9188200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>5635500</v>
+        <v>7347700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>5797700</v>
+        <v>6018600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>6191900</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>5417800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>5403400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5262100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5876700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>978600</v>
+        <v>1045100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>1106500</v>
+        <v>1045100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>812900</v>
+        <v>1181700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>868100</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>991500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>1068400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>875500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>935800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20876800</v>
+        <v>22978800</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="3">
-        <v>18018100</v>
+        <v>22296100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>18793600</v>
+        <v>19243100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J60" s="3">
+        <v>20071300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>17595300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>17824000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>16909800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>18785200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11945100</v>
+        <v>14189000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>12983300</v>
+        <v>12757200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>12265100</v>
+        <v>13866000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>13099000</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>9974300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>10611100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>10132200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9794300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4770700</v>
+        <v>5133700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>4589100</v>
+        <v>5095000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>4686800</v>
+        <v>4901100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>5005400</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4637600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>4826000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>5316800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>5546400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38860500</v>
+        <v>43613200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>36889500</v>
+        <v>41502400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>37021100</v>
+        <v>39397400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3">
+        <v>39538000</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>33427000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>34555600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>33611000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>35449100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3885900</v>
+        <v>-4644900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-4228300</v>
+        <v>-4150100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-3931900</v>
+        <v>-4515700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
+        <v>-4199200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6572200</v>
+        <v>6260700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="3">
-        <v>6227800</v>
+        <v>7019000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>6501200</v>
+        <v>6651200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="3">
+        <v>6943100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>6216400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>8392700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>8193200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>9096100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>325100</v>
+        <v>-162800</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>367100</v>
+        <v>347200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>163900</v>
+        <v>392000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>176900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>223400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>146800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>234600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1201500</v>
+        <v>1275500</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>1044800</v>
+        <v>1283200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>1025600</v>
+        <v>1115800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>1095400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>979700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>839800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>861100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>969400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2827400</v>
+        <v>487000</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>592700</v>
+        <v>3019600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>2495400</v>
+        <v>633000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>2665100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>652700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2223600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>526500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2396300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1111400</v>
+        <v>-714600</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-745000</v>
+        <v>-1186900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-1005600</v>
+        <v>-795600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-1074000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-637800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-560400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-403100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>165900</v>
+        <v>-1008900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-448700</v>
+        <v>177200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-1040600</v>
+        <v>-479200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-1111300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-676600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-457400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-957800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45000</v>
+        <v>-409800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-687200</v>
+        <v>-48000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-46000</v>
+        <v>-733900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-610200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-60600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-590700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-724300</v>
+        <v>2092000</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>-1079200</v>
+        <v>-773500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>672000</v>
+        <v>-1152600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>717700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>671000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-921700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>827700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10900</v>
+        <v>-31900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>6500</v>
+        <v>-11600</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>7000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-11300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-32100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>17400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2258200</v>
+        <v>1538100</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>-928700</v>
+        <v>2411700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>1852800</v>
+        <v>-991900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>1978800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1762000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-886000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>2335900</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14682200</v>
+        <v>7527700</v>
       </c>
       <c r="E8" s="3">
-        <v>7895900</v>
+        <v>14847200</v>
       </c>
       <c r="F8" s="3">
-        <v>16400700</v>
+        <v>7984600</v>
       </c>
       <c r="G8" s="3">
-        <v>7618000</v>
+        <v>16585100</v>
       </c>
       <c r="H8" s="3">
-        <v>15760800</v>
+        <v>7703600</v>
       </c>
       <c r="I8" s="3">
-        <v>8026000</v>
+        <v>15938000</v>
       </c>
       <c r="J8" s="3">
+        <v>8116200</v>
+      </c>
+      <c r="K8" s="3">
         <v>15807600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6867200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13942400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7068900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14172900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6513000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13673100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7267100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14498800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>12556800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13664600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13006700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12698000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13818300</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13152900</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>13105100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11413600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11652900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11155500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>12109800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2125300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2736000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2754100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2149200</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2766800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2785100</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2702500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2528800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2520000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2517600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2388900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>148900</v>
+        <v>146500</v>
       </c>
       <c r="E14" s="3">
-        <v>72000</v>
+        <v>150600</v>
       </c>
       <c r="F14" s="3">
-        <v>292600</v>
+        <v>72800</v>
       </c>
       <c r="G14" s="3">
-        <v>82900</v>
+        <v>295900</v>
       </c>
       <c r="H14" s="3">
-        <v>189000</v>
+        <v>83900</v>
       </c>
       <c r="I14" s="3">
-        <v>80400</v>
+        <v>191200</v>
       </c>
       <c r="J14" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K14" s="3">
         <v>263200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>68900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>195900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>75200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>236500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>80700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>247600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>76400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>633300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>619500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>610100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>796100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>640400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>626400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>617000</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>565900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>548700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>1376200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>473000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>14383700</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>15697000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>14885400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14545400</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15873500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15052700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>15036900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>13175700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>13524100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13015600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>13922000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>298400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>703700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>875500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>301800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>711600</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>885300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>770700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>766700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>648700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>657500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>576800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-81400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>270600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>273700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-94900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-50900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-48800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-54800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1492600</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2257600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1987000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1509400</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2282900</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2009400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1771200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1695400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1426000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1433700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1491400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>225500</v>
+        <v>8000</v>
       </c>
       <c r="E22" s="3">
-        <v>10800</v>
+        <v>228000</v>
       </c>
       <c r="F22" s="3">
-        <v>221200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>239200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>223700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>241900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>235900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>182500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>199800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>199700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>210300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>753200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>632000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>761600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>639100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>439900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>533200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>400100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>397900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>311600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65300</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="3">
-        <v>73200</v>
+        <v>66000</v>
       </c>
       <c r="F24" s="3">
-        <v>236100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>117000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+        <v>74000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>238800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>118300</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>89100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>137000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>124700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>119000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>77100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-73700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>517000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>515000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>522900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>520800</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>350800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>396200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>275400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>278800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>234500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-152100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>460700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>410800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>465900</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>415400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>177200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>226300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>219000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>130400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>287900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-113600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-114800</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-49400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>4400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>16400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-53300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>81400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-270600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>82300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-273700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>94900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>50900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>48800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>59900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>54800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-162800</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>347200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>392000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>351100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>396400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>175100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>176900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>223400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>146800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>234600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-162800</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>347200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>392000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>351100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>396400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>175100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>176900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>223400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>146800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>234600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>8314500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6912000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4537000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8408000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6989800</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>5389900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>3244600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>7028000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5414300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>6481100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1401100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>975300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>997200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1416900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>986300</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>628700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>803700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>675300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>791700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>500400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>10779100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>11050300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>10902600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10900300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11174500</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11025100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>10658000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>10169400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>9525100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>9987800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>10195700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>946300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>936900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>995500</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>957000</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>947400</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1006700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>967600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>834000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>809600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>771300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>844700</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>282100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>147600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1063400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>285300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>149300</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1075400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>486200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>839600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>625200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>286600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>155200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>21723100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>20022100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>18495700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21967400</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>20247200</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>18703700</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>18130400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>15891300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>18663300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>17251600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>18177000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>4324300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4422200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4317500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4372900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4471900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4366000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>4312300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>3978200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>4431700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4581000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>5157400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>10639900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11053500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10562100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10759600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11177800</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10680900</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>20596800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>8036000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>16368500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7829600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>8424700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>11974400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>11850300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11344400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12109000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11983500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>11471900</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>16837300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>10573400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>10555800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>10748100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>11313800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1212100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1173300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1329000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1225700</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1186500</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1343900</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1271700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1164600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1113200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1394000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1472300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>49873900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>48521400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>46048600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>50434700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>49066900</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>46566400</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>46481100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>39643400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>42948300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>41804200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>44545200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>12745500</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>13903300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>12042800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12888800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14059700</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>12178200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>13011200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>11186000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>11352300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>10772200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>11972700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>9188200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7347700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6018600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9291500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7430300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6086300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>6191900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>5417800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5403400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5262100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5876700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1045100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1045100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1181700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1056800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1056800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>868100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>991500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1068400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>875500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>935800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>22978800</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>22296100</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>19243100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23237100</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>22546800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>19459400</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>20071300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>17595300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>17824000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>16909800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>18785200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14189000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>14348500</v>
       </c>
       <c r="F61" s="3">
-        <v>12757200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>12900700</v>
       </c>
       <c r="H61" s="3">
-        <v>13866000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>14021900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13099000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>9974300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>10611100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>10132200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9794300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>5133700</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5095000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4901100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5191400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5152300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4956200</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>5005400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>4637600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4826000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5316800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>5546400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>43613200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>41502400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>39397400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44103500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>41969000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>39840400</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>39538000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>33427000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>34555600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>33611000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>35449100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-4644900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-4150100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4515700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4697100</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-4196700</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4566500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>6260700</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>7019000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6651200</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6331100</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7097900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6726000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>6943100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>6216400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>8392700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8193200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>9096100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-162800</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>347200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>392000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>351100</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>396400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>175100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>176900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>223400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>146800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>234600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1275500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1283200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1115800</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1289900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1297600</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1128400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>1095400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>979700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>839800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>861100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>969400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>487000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>3019600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>633000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>492500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3053500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>640100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>2665100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>652700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>2223600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>526500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>2396300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-714600</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1186900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-795600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-722600</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1200300</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-804600</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-637800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-560400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-403100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1008900</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>177200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-479200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1020200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>179200</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-484600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-676600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-457400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-957800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-409800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-414400</v>
       </c>
       <c r="F96" s="3">
-        <v>-48000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-48600</v>
       </c>
       <c r="H96" s="3">
-        <v>-733900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-742100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-49100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-610200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-60600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-590700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-24200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>2092000</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-773500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1152600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2115500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-782200</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1165600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>717700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>671000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-921700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>827700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-11300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>17400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>1538100</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2411700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-991900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1555400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2438800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1003000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>1978800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>1762000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-886000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>2335900</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7527700</v>
+        <v>15996600</v>
       </c>
       <c r="E8" s="3">
-        <v>14847200</v>
+        <v>7403100</v>
       </c>
       <c r="F8" s="3">
-        <v>7984600</v>
+        <v>14601500</v>
       </c>
       <c r="G8" s="3">
-        <v>16585100</v>
+        <v>7852500</v>
       </c>
       <c r="H8" s="3">
-        <v>7703600</v>
+        <v>16310600</v>
       </c>
       <c r="I8" s="3">
-        <v>15938000</v>
+        <v>7576100</v>
       </c>
       <c r="J8" s="3">
+        <v>15674200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8116200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15807600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6867200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13942400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7068900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14172900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6513000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13673100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7267100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14498800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12698000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13818300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>13152900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>13229800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12487800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13589500</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12935200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>13105100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11413600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11652900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11155500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>12109800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2149200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="D10" s="3">
         <v>2766800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2785100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2113600</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2721000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2739000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2702500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2528800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2520000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2517600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2388900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>146500</v>
+        <v>335600</v>
       </c>
       <c r="E14" s="3">
-        <v>150600</v>
+        <v>144100</v>
       </c>
       <c r="F14" s="3">
-        <v>72800</v>
+        <v>148100</v>
       </c>
       <c r="G14" s="3">
-        <v>295900</v>
+        <v>71600</v>
       </c>
       <c r="H14" s="3">
-        <v>83900</v>
+        <v>291000</v>
       </c>
       <c r="I14" s="3">
-        <v>191200</v>
+        <v>82500</v>
       </c>
       <c r="J14" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K14" s="3">
         <v>81300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>263200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>68900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>195900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>75200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>236500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>80700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>247600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>76400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>796100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>640400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>626400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>782900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>629800</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>616100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>617000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>565900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>548700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1376200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>473000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>14545400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>15873500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>15052700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>15341700</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14304700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>15610700</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14803600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>15036900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>13175700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>13524100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>13015600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>13922000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>301800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>711600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>885300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>654900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>296800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>699800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>870700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>770700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>766700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>648700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>657500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>576800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-82300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>273700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>269200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-94900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-50900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-48800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-59900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-54800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1509400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2282900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2009400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1794500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1484400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2245200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1976100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1771200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1695400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1426000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1433700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1491400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8000</v>
+        <v>203500</v>
       </c>
       <c r="E22" s="3">
-        <v>228000</v>
+        <v>7900</v>
       </c>
       <c r="F22" s="3">
-        <v>10900</v>
+        <v>224200</v>
       </c>
       <c r="G22" s="3">
-        <v>223700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>241900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>220000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>235900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>182500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>199800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>199700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>210300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>761600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>639100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>438200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>749000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>628600</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>439900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>533200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>400100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>397900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>311600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50800</v>
+        <v>96200</v>
       </c>
       <c r="E24" s="3">
-        <v>66000</v>
+        <v>50000</v>
       </c>
       <c r="F24" s="3">
-        <v>74000</v>
+        <v>64900</v>
       </c>
       <c r="G24" s="3">
-        <v>238800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>118300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+        <v>72800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>234800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>89100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>137000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>124700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>119000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>77100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-74500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>522900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>520800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>514200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>512200</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>350800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>396200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>275400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>278800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>234500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-153800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>465900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>415400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-151300</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>458200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>408600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>177200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>226300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>219000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>130400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>287900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-114800</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-49400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>4400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>16400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-53300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>82300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-273700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>80900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-269200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>94900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>50900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>48800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>59900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>54800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-164600</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>351100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>396400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>345300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>389900</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>175100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>176900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>223400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>146800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>234600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-164600</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>351100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>396400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>345300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>389900</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>175100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>176900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>223400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>146800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>234600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>8408000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6989800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4588000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>6870200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8268800</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6874100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4512100</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>5389900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>3244600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>7028000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>5414300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>6481100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1416900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>986300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1008400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>1465800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>969900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>991700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>628700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>803700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>675300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>791700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>500400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10900300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>11174500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11025100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>10712500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10719800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10989600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10842600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>10658000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>10169400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>9525100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>9987800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>10195700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>957000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>947400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1006700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>938400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>941100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>931700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>990100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>967600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>834000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>809600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>771300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>844700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>285300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>149300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1075400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>741600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>280600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>146800</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1057600</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>486200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>839600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>625200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>286600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>155200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>21967400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>20247200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>18703700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>20728500</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>21603800</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>19912100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18394100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>18130400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>15891300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>18663300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>17251600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>18177000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4372900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4471900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4366000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>7178700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4300600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4397900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4293700</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>4312300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>3978200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>4431700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>4581000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>5157400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>10759600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11177800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10680900</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>11465300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10581500</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>10992800</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10504100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>20596800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>8036000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>16368500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7829600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>8424700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>12109000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11983500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11471900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>12711100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11908600</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>11785200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11282000</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>16837300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>10573400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>10555800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>10748100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>11313800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1225700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1186500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1343900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1205500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1166900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1321700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1271700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1164600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1113200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1394000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1472300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>50434700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>49066900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>46566400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>53366100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>49599800</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>48254800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>45795600</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>46481100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>39643400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>42948300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>41804200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>44545200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>12888800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>14059700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>12178200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>13940800</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>12675500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13826900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11976600</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>13011200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>11186000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>11352300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>10772200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>11972700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9291500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7430300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6086300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>9196200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9137700</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7307300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5985500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>6191900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>5417800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5403400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5262100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5876700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1056800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1056800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1195000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>919900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1039300</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1039300</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1175200</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>868100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>991500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>1068400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>875500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>935800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>23237100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>22546800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>19459400</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>24056900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>22852500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>22173600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19137300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>20071300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>17595300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>17824000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>16909800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>18785200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14273500</v>
       </c>
       <c r="E61" s="3">
-        <v>14348500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14111000</v>
       </c>
       <c r="G61" s="3">
-        <v>12900700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12687100</v>
       </c>
       <c r="I61" s="3">
-        <v>14021900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>13789800</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>13099000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9974300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>10611100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>10132200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9794300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5191400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5152300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4956200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>5254300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5105500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5067000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4874200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>5005400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>4637600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>4826000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>5316800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>5546400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>44103500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>41969000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>39840400</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>44877000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>43373500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>41274300</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>39180900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>39538000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>33427000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>34555600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>33611000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>35449100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4697100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-4196700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4566500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-4330900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-4619400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4127300</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-4490900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6331100</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>7097900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6726000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>8489100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6226300</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6980400</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6614700</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>6943100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>6216400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>8392700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>8193200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>9096100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-164600</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>351100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>396400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>266300</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>345300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>389900</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>175100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>176900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>223400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>146800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>234600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1289900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1297600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1128400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1152800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1268500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1276200</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>1095400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>979700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>839800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>861100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>969400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>492500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3053500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>640100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>2723500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>484300</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3003000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>629500</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>2665100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>652700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>2223600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>526500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>2396300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-722600</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1200300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-804600</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1181700</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-710700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1180400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-791200</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-637800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-560400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-403100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1020200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>179200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-484600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-6219700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1003400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>176200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-476600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-676600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-457400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-957800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-93600</v>
       </c>
       <c r="E96" s="3">
-        <v>-414400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-407500</v>
       </c>
       <c r="G96" s="3">
-        <v>-48600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-47800</v>
       </c>
       <c r="I96" s="3">
-        <v>-742100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-729800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-49100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-610200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-60600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-590700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-24200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2115500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-782200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1165600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>2060700</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2080500</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-769200</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1146300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>717700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>671000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-921700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>827700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-6500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-11300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-32100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>17400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1555400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>2438800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1003000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-1434000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1529700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2398400</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-986400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1978800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>1762000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-886000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>2335900</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15996600</v>
+        <v>8338500</v>
       </c>
       <c r="E8" s="3">
-        <v>7403100</v>
+        <v>16657300</v>
       </c>
       <c r="F8" s="3">
-        <v>14601500</v>
+        <v>7708900</v>
       </c>
       <c r="G8" s="3">
-        <v>7852500</v>
+        <v>15204600</v>
       </c>
       <c r="H8" s="3">
-        <v>16310600</v>
+        <v>8176800</v>
       </c>
       <c r="I8" s="3">
-        <v>7576100</v>
+        <v>16984200</v>
       </c>
       <c r="J8" s="3">
+        <v>7889100</v>
+      </c>
+      <c r="K8" s="3">
         <v>15674200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8116200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15807600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6867200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13942400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7068900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14172900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6513000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13673100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7267100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14498800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>13229800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12487800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13589500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13776200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13003600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14150800</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>12935200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>13105100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11413600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11652900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11155500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>12109800</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2766800</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2113600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2721000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2881100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2200900</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2833400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2739000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2702500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2528800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2520000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2517600</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2388900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>335600</v>
+        <v>79900</v>
       </c>
       <c r="E14" s="3">
-        <v>144100</v>
+        <v>349500</v>
       </c>
       <c r="F14" s="3">
-        <v>148100</v>
+        <v>150100</v>
       </c>
       <c r="G14" s="3">
-        <v>71600</v>
+        <v>154200</v>
       </c>
       <c r="H14" s="3">
-        <v>291000</v>
+        <v>74600</v>
       </c>
       <c r="I14" s="3">
-        <v>82500</v>
+        <v>303100</v>
       </c>
       <c r="J14" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K14" s="3">
         <v>188000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>81300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>263200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>195900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>75200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>236500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>80700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>247600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>76400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>782900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>629800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>616100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>646500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>815200</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>655900</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>641500</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>617000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>565900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>548700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>1376200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>473000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>15341700</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14304700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>15610700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15975300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>14895500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16255500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>14803600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>15036900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>13175700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13524100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>13015600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>13922000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>654900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>296800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>699800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>682000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>309100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>728700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>870700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>770700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>766700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>648700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>657500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>576800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-80900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>269200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>280300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-94900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-50900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-59900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-54800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1794500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1484400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2245200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1868600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2337900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1976100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1771200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1695400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1433700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1491400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>203500</v>
+        <v>9100</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>211900</v>
       </c>
       <c r="F22" s="3">
-        <v>224200</v>
+        <v>8200</v>
       </c>
       <c r="G22" s="3">
-        <v>10700</v>
+        <v>233500</v>
       </c>
       <c r="H22" s="3">
-        <v>220000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>229100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>237900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>235900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>182500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>199800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>199700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>210300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>438200</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>749000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>456300</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>780000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>628600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>439900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>533200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>397900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>311600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96200</v>
+        <v>113700</v>
       </c>
       <c r="E24" s="3">
-        <v>50000</v>
+        <v>100200</v>
       </c>
       <c r="F24" s="3">
-        <v>64900</v>
+        <v>52100</v>
       </c>
       <c r="G24" s="3">
-        <v>72800</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3">
-        <v>234800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+        <v>75800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>244500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>116300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>89100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>137000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>124700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>119000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>77100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>342000</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-73300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>514200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>356100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>535400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>512200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>350800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>396200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>275400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>278800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>234500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>279200</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-151300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>458200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>290700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>477100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>408600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>177200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>226300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>219000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>130400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>287900</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-112900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-18700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-49400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>16400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-53300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>13200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>80900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-269200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>84300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-280300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>94900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>50900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>48800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>59900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>54800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>266300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-161900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>345300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>277300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>359500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>389900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>175100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>176900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>223400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>146800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>234600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>266300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-161900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>345300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>277300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>359500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>389900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>175100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>176900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>223400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>146800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>234600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>6870200</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8268800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6874100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7153900</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>8610300</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7158000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>4512100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>5389900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>3244600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7028000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5414300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>6481100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1465800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1393400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>969900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>991700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>628700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>803700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>675300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>791700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>500400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>10712500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>10719800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>10989600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11155000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11162600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11443500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>10842600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>10658000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>10169400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>9525100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>9987800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>10195700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>938400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>941100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>931700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>977200</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>980000</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>970200</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>990100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>967600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>834000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>809600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>771300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>844700</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>741600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>280600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>146800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>772200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>292200</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>152900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1057600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>486200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>839600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>625200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>286600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>155200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>20728500</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>21603800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>19912100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21584700</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>22496100</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>20734500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>18394100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>18130400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>15891300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>18663300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>17251600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>18177000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>7178700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4300600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4397900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7475300</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4478200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4579500</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>4293700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>4312300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>3978200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4431700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>4581000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>5157400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>11465300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10581500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10992800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11938900</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11018500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11446800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>10504100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>20596800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>8036000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>16368500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7829600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>8424700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>12711100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>11908600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11785200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13236100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>12400500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12271900</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>11282000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>16837300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>10573400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>10555800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>10748100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>11313800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1282400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1205500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1166900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1335400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1255200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1215100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1321700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1271700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1164600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1113200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1394000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1472300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>53366100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>49599800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>48254800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>55570300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>51648500</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>50247900</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>45795600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>46481100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>39643400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>42948300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>41804200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>44545200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>13940800</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>12675500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>13826900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14516600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13199000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>14398000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>11976600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>13011200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>11186000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>11352300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>10772200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>11972700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>9196200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9137700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7307300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9576000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9515100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7609100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>5985500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>6191900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5417800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5403400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5262100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5876700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>919900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1039300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1039300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>957900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1082300</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1082300</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>1175200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>868100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>991500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1068400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>875500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>935800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>24056900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>22852500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>22173600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25050600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>23796400</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>23089500</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>19137300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>20071300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>17595300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>17824000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>16909800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>18785200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14273500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>14863000</v>
       </c>
       <c r="F61" s="3">
-        <v>14111000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>14693900</v>
       </c>
       <c r="H61" s="3">
-        <v>12687100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13211100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13789800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13099000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>9974300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>10611100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>10132200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9794300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>5254300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5105500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5067000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5471300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5316300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5276300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>4874200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>5005400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4637600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4826000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>5316800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>5546400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>44877000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>43373500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>41274300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>46730600</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45165000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>42979100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>39180900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>39538000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>33427000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>34555600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>33611000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>35449100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-4330900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-4619400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4127300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4509800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-4810200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4297800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>8489100</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>6226300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6980400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8839800</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6483500</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7268700</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>6614700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>6943100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>6216400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8392700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>8193200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>9096100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>266300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-161900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>345300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>277300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>359500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>389900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>175100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>176900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>223400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>146800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>234600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1152800</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1268500</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1276200</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1200400</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1320900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1328900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>1109700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1095400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>979700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>839800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>861100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>969400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>2723500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>484300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>3003000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2836000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>504300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3127000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>629500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>2665100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>652700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2223600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>526500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2396300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1181700</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-710700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1180400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1230500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-740000</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1229200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-791200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-637800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-560400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-403100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-6219700</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1003400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>176200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6476600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1044800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>183500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-476600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-676600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-457400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-957800</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-93600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-97500</v>
       </c>
       <c r="F96" s="3">
-        <v>-407500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-424300</v>
       </c>
       <c r="H96" s="3">
-        <v>-47800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-49700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-729800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-49100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-610200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-590700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-24200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>2060700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2080500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-769200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2145800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2166400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-801000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>717700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>671000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-921700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>827700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>6900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-6500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-11300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-32100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>17400</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1434000</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1529700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>2398400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1493300</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1592900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2497500</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-986400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>1978800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1762000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-886000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>2335900</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8338500</v>
+        <v>15929400</v>
       </c>
       <c r="E8" s="3">
-        <v>16657300</v>
+        <v>7946600</v>
       </c>
       <c r="F8" s="3">
-        <v>7708900</v>
+        <v>15874300</v>
       </c>
       <c r="G8" s="3">
-        <v>15204600</v>
+        <v>7346500</v>
       </c>
       <c r="H8" s="3">
-        <v>8176800</v>
+        <v>14489900</v>
       </c>
       <c r="I8" s="3">
-        <v>16984200</v>
+        <v>7792500</v>
       </c>
       <c r="J8" s="3">
+        <v>16185900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7889100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15674200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8116200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15807600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6867200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13942400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7068900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14172900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6513000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13673100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7267100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14498800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>13776200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13003600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>14150800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>13111900</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13128700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12392400</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>13485700</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>12935200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>13105100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11413600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11652900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>11155500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>12109800</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2881100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2200900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2833400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>2817500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2745600</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2097500</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2700200</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2739000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2702500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2528800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2520000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2517600</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2388900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>79900</v>
+        <v>208000</v>
       </c>
       <c r="E14" s="3">
-        <v>349500</v>
+        <v>76100</v>
       </c>
       <c r="F14" s="3">
-        <v>150100</v>
+        <v>333100</v>
       </c>
       <c r="G14" s="3">
-        <v>154200</v>
+        <v>143000</v>
       </c>
       <c r="H14" s="3">
-        <v>74600</v>
+        <v>147000</v>
       </c>
       <c r="I14" s="3">
-        <v>303100</v>
+        <v>71100</v>
       </c>
       <c r="J14" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K14" s="3">
         <v>85900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>188000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>81300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>263200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>195900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>75200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>236500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>80700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>247600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>76400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>646500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>815200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>655900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>616200</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>776900</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>625000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>641500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>617000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>565900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>548700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>1376200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>473000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>15975300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>14895500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>16255500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>15122300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15224400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14195400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15491400</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>14803600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>15036900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>13175700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>13524100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>13015600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>13922000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>682000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>309100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>728700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>807100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>649900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>294500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>870700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>770700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>766700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>648700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>657500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>576800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-84300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>280300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-94900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-50900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-48800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-59900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-54800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1868600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1545700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2337900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>2139900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1780800</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1976100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1771200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1695400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1426000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1433700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1491400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9100</v>
+        <v>181100</v>
       </c>
       <c r="E22" s="3">
-        <v>211900</v>
+        <v>8600</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>202000</v>
       </c>
       <c r="G22" s="3">
-        <v>233500</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3">
-        <v>11100</v>
+        <v>222500</v>
       </c>
       <c r="I22" s="3">
-        <v>229100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>237900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>235900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>182500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>199800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>199700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>210300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>456300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>780000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>722200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>434900</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>743300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>628600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>439900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>533200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>400100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>397900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>311600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113700</v>
+        <v>254500</v>
       </c>
       <c r="E24" s="3">
-        <v>100200</v>
+        <v>108300</v>
       </c>
       <c r="F24" s="3">
-        <v>52100</v>
+        <v>95500</v>
       </c>
       <c r="G24" s="3">
-        <v>67600</v>
+        <v>49600</v>
       </c>
       <c r="H24" s="3">
-        <v>75800</v>
+        <v>64400</v>
       </c>
       <c r="I24" s="3">
-        <v>244500</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>116300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>89100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>137000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>124700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>119000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>77100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>356100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-76300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>535400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>339400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>512200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>350800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>396200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>275400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>278800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>234500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>290700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-157500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>477100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>356200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>277000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>454700</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>408600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>177200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>226300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>219000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>130400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>287900</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-117600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-112100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-18700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-49400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>4400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>16400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-53300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>13700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>84300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-280300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>80300</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-267100</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>94900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>50900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>48800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>59900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>54800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>277300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-168600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>359500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>264300</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>389900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>175100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>176900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>223400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>146800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>234600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>277300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-168600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>359500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>264300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>389900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>175100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>176900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>223400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>146800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>234600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7153900</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>8610300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>7158000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>6366900</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6817700</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8205600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6821500</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>4512100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>5389900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>3244600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>7028000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>5414300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>6481100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1526300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1451000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1010000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1454600</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1382800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>962500</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>991700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>628700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>803700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>675300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>791700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>500400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>11155000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>11162600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>11443500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>11118100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10630700</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10637900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10905600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>10842600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>10658000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>10169400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>9525100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>9987800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>10195700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>977200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>980000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>970200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>915200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>931200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>933900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>924600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>990100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>967600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>834000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>809600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>771300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>844700</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>772200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>292200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>152900</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>503200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>735900</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>278400</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1057600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>486200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>839600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>625200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>286600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>155200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>21584700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>22496100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>20734500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>20649800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>20570100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>21438700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>19759900</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>18394100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>18130400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>15891300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>18663300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>17251600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>18177000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>7475300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4478200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4579500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>8209000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7123900</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4267700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4364200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>4293700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>4312300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>3978200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>4431700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>4581000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>5157400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>11938900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11018500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>11446800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>11537500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>11377700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>10500600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10908700</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>10504100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>20596800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>8036000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>16368500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7829600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>8424700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>13236100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12400500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12271900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>12766600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>12614000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>11817600</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11695100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>11282000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>16837300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>10573400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>10555800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>10748100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>11313800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1335400</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1255200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1215100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1272600</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1196200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1321700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1271700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1164600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1113200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1394000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1472300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>55570300</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>51648500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>50247900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>54452000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>52958300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>49220800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>47886000</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>45795600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>46481100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>39643400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>42948300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>41804200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>44545200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>14516600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>13199000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>14398000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>13838400</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13834300</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12578600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>13721300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>11976600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>13011200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>11186000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>11352300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>10772200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>11972700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>9576000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9515100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7609100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>9998400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9125900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9067900</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7251500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>5985500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>6191900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5417800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5403400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5262100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>5876700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>957900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1082300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1082300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>1123700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>912900</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>1175200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>868100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>991500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>1068400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>875500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>935800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>25050600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>23796400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>23089500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>24960500</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>23873100</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>22677900</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>22004200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>19137300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>20071300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>17595300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>17824000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>16909800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>18785200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>13563200</v>
       </c>
       <c r="E61" s="3">
-        <v>14863000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14164400</v>
       </c>
       <c r="G61" s="3">
-        <v>14693900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>14003200</v>
       </c>
       <c r="I61" s="3">
-        <v>13211100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>12590200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>13789800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>13099000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9974300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>10611100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>10132200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>9794300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5471300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5316300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5276300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>5296000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5214100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5066400</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5028300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4874200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>5005400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>4637600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>4826000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>5316800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>5546400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>46730600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>45165000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>42979100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>45170700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44534000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>43042100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>40958900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>39180900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>39538000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>33427000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>34555600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>33611000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>35449100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4509800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-4810200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="D72" s="3">
+        <v>-4332500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4297800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4584100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-4095700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8839800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>6483500</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>7268700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>9281300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>8424300</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6178800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6927100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>6614700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>6943100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>6216400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>8392700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>8193200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>9096100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>277300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-168600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>359500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>264300</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>389900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>175100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>176900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>223400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>146800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>234600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1320900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1328900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>1236600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1143900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1258800</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1266400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>1109700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>1095400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>979700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>839800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>861100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>969400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2836000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>504300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3127000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1218900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2702700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>480600</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>629500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2665100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>652700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2223600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>526500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2396300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1230500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-740000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1229200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-724700</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1172700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-705200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1171400</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-791200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-637800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-560400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-403100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-6476600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1044800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>183500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-561100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-6172200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-995700</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-476600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-676600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-457400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-957800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-560600</v>
       </c>
       <c r="E96" s="3">
-        <v>-97500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-92900</v>
       </c>
       <c r="G96" s="3">
-        <v>-424300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-404400</v>
       </c>
       <c r="I96" s="3">
-        <v>-49700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-47400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-729800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-49100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-610200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-60600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-590700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-24200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2145800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2166400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-801000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-1136700</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2064600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-763400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>717700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>671000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-921700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>827700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>6900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-6500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-11300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-32100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>17400</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1493300</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1592900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2497500</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-458800</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1423100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1518000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2380100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-986400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1978800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>1762000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-886000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>2335900</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15929400</v>
+        <v>15406700</v>
       </c>
       <c r="E8" s="3">
-        <v>7946600</v>
+        <v>7685800</v>
       </c>
       <c r="F8" s="3">
-        <v>15874300</v>
+        <v>15353400</v>
       </c>
       <c r="G8" s="3">
-        <v>7346500</v>
+        <v>7105400</v>
       </c>
       <c r="H8" s="3">
-        <v>14489900</v>
+        <v>14014400</v>
       </c>
       <c r="I8" s="3">
-        <v>7792500</v>
+        <v>7536700</v>
       </c>
       <c r="J8" s="3">
-        <v>16185900</v>
+        <v>15654700</v>
       </c>
       <c r="K8" s="3">
         <v>7889100</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13111900</v>
+        <v>12681600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>13128700</v>
+        <v>12697900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>12392400</v>
+        <v>11985700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>13485700</v>
+        <v>13043100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -893,25 +893,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2817500</v>
+        <v>2725100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>2745600</v>
+        <v>2655500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>2097500</v>
+        <v>2028700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>2700200</v>
+        <v>2611600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -1113,25 +1113,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>208000</v>
+        <v>201200</v>
       </c>
       <c r="E14" s="3">
-        <v>76100</v>
+        <v>73600</v>
       </c>
       <c r="F14" s="3">
-        <v>333100</v>
+        <v>322100</v>
       </c>
       <c r="G14" s="3">
-        <v>143000</v>
+        <v>138300</v>
       </c>
       <c r="H14" s="3">
-        <v>147000</v>
+        <v>142200</v>
       </c>
       <c r="I14" s="3">
-        <v>71100</v>
+        <v>68800</v>
       </c>
       <c r="J14" s="3">
-        <v>288800</v>
+        <v>279300</v>
       </c>
       <c r="K14" s="3">
         <v>85900</v>
@@ -1181,19 +1181,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>616200</v>
+        <v>595900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>776900</v>
+        <v>751400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>625000</v>
+        <v>604500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15122300</v>
+        <v>14626000</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>15224400</v>
+        <v>14724800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>14195400</v>
+        <v>13729500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>15491400</v>
+        <v>14983000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>807100</v>
+        <v>780700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>649900</v>
+        <v>628600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>294500</v>
+        <v>284900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>694500</v>
+        <v>671700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1420,25 +1420,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>96100</v>
+        <v>92900</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-13100</v>
+        <v>-12600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-80300</v>
+        <v>-77700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>267100</v>
+        <v>258300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1485,25 +1485,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2139900</v>
+        <v>2069600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>1780800</v>
+        <v>2939800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>1473000</v>
+        <v>1424700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>2228000</v>
+        <v>3220000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1550,25 +1550,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>181100</v>
+        <v>175100</v>
       </c>
       <c r="E22" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F22" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="H22" s="3">
-        <v>222500</v>
+        <v>215200</v>
       </c>
       <c r="I22" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="J22" s="3">
-        <v>218300</v>
+        <v>211100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>722200</v>
+        <v>698500</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>434900</v>
+        <v>420600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>743300</v>
+        <v>718900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1680,25 +1680,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>254500</v>
+        <v>246100</v>
       </c>
       <c r="E24" s="3">
-        <v>108300</v>
+        <v>104800</v>
       </c>
       <c r="F24" s="3">
-        <v>95500</v>
+        <v>92400</v>
       </c>
       <c r="G24" s="3">
-        <v>49600</v>
+        <v>48000</v>
       </c>
       <c r="H24" s="3">
-        <v>64400</v>
+        <v>62300</v>
       </c>
       <c r="I24" s="3">
-        <v>72300</v>
+        <v>69900</v>
       </c>
       <c r="J24" s="3">
-        <v>233000</v>
+        <v>225400</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>467700</v>
+        <v>452300</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>339400</v>
+        <v>328200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>-72700</v>
+        <v>-70300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>510300</v>
+        <v>493500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>5</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>356200</v>
+        <v>344500</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>277000</v>
+        <v>267900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>-150100</v>
+        <v>-145200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
-        <v>454700</v>
+        <v>439800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>5</v>
@@ -2005,25 +2005,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>-112100</v>
+        <v>-108400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2200,25 +2200,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-96100</v>
+        <v>-92900</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>80300</v>
+        <v>77700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>-267100</v>
+        <v>-258300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>350800</v>
+        <v>339300</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>264300</v>
+        <v>255600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>-160600</v>
+        <v>-155400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>342600</v>
+        <v>331400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>350800</v>
+        <v>339300</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>264300</v>
+        <v>255600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>-160600</v>
+        <v>-155400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
-        <v>342600</v>
+        <v>331400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>5</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6366900</v>
+        <v>6158000</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>6817700</v>
+        <v>6593900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>8205600</v>
+        <v>7936300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3">
-        <v>6821500</v>
+        <v>6597700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1746400</v>
+        <v>1689100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>1454600</v>
+        <v>1406900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>1382800</v>
+        <v>1337400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3">
-        <v>962500</v>
+        <v>930900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11118100</v>
+        <v>10753200</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>10630700</v>
+        <v>10281800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>10637900</v>
+        <v>10288800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3">
-        <v>10905600</v>
+        <v>10547700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>915200</v>
+        <v>885200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="3">
-        <v>931200</v>
+        <v>900700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <v>933900</v>
+        <v>903300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J44" s="3">
-        <v>924600</v>
+        <v>894200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>503200</v>
+        <v>486600</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>735900</v>
+        <v>711800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>278400</v>
+        <v>269300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="3">
-        <v>145700</v>
+        <v>140900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20649800</v>
+        <v>19972200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="3">
-        <v>20570100</v>
+        <v>19895100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <v>21438700</v>
+        <v>20735100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="3">
-        <v>19759900</v>
+        <v>19111500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
@@ -2970,25 +2970,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8209000</v>
+        <v>7939600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>7123900</v>
+        <v>6890100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>4267700</v>
+        <v>4127700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>4364200</v>
+        <v>4221000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11537500</v>
+        <v>11158900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>11377700</v>
+        <v>11004300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>10500600</v>
+        <v>10156000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3">
-        <v>10908700</v>
+        <v>10550800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -3100,25 +3100,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12766600</v>
+        <v>12347600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="3">
-        <v>12614000</v>
+        <v>12200000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>11817600</v>
+        <v>11429800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <v>11695100</v>
+        <v>11311300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1289100</v>
+        <v>1246800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>1272600</v>
+        <v>1230800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>1196200</v>
+        <v>1157000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3">
-        <v>1158000</v>
+        <v>1120000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54452000</v>
+        <v>52665100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>52958300</v>
+        <v>51220400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>49220800</v>
+        <v>47605600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="3">
-        <v>47886000</v>
+        <v>46314600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13838400</v>
+        <v>13384200</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>13834300</v>
+        <v>13380300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>12578600</v>
+        <v>12165800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>13721300</v>
+        <v>13271000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9998400</v>
+        <v>9670300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>9125900</v>
+        <v>8826400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>9067900</v>
+        <v>8770300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>7251500</v>
+        <v>7013500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1123700</v>
+        <v>1086900</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>912900</v>
+        <v>883000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>1031400</v>
+        <v>997600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3">
-        <v>1031400</v>
+        <v>997600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24960500</v>
+        <v>24141400</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="3">
-        <v>23873100</v>
+        <v>23089600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H60" s="3">
-        <v>22677900</v>
+        <v>21933700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J60" s="3">
-        <v>22004200</v>
+        <v>21282100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13563200</v>
+        <v>13118100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14164400</v>
+        <v>13699600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>14003200</v>
+        <v>13543700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>12590200</v>
+        <v>12177000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5296000</v>
+        <v>5122200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>5214100</v>
+        <v>5043000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>5066400</v>
+        <v>4900200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>5028300</v>
+        <v>4863300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45170700</v>
+        <v>43688400</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="3">
-        <v>44534000</v>
+        <v>43072600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>43042100</v>
+        <v>41629600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3">
-        <v>40958900</v>
+        <v>39614800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4332500</v>
+        <v>-4190300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>-4297800</v>
+        <v>-4156800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>-4584100</v>
+        <v>-4433600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
-        <v>-4095700</v>
+        <v>-3961300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9281300</v>
+        <v>8976700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="3">
-        <v>8424300</v>
+        <v>8147800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>6178800</v>
+        <v>5976000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="3">
-        <v>6927100</v>
+        <v>6699700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>350800</v>
+        <v>339300</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>264300</v>
+        <v>255600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>-160600</v>
+        <v>-155400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
-        <v>342600</v>
+        <v>331400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>5</v>
@@ -5025,25 +5025,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1236600</v>
+        <v>1196100</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>1143900</v>
+        <v>2323900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>1258800</v>
+        <v>1217500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>1266400</v>
+        <v>2289900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -5415,25 +5415,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1218900</v>
+        <v>1178900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>2702700</v>
+        <v>3078800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>480600</v>
+        <v>464900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
-        <v>2980000</v>
+        <v>3486400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -5505,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-724700</v>
+        <v>-700900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-1172700</v>
+        <v>-1816300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-705200</v>
+        <v>-682100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-1171400</v>
+        <v>-1892400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-561100</v>
+        <v>-542600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-6172200</v>
+        <v>-6932700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-995700</v>
+        <v>-963000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
-        <v>174900</v>
+        <v>-288300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -5790,25 +5790,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-560600</v>
+        <v>-542200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-92900</v>
+        <v>-481000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-404400</v>
+        <v>-391100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-47400</v>
+        <v>-746300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1136700</v>
+        <v>-1099400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>2045000</v>
+        <v>3974700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>2064600</v>
+        <v>1996800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
-        <v>-763400</v>
+        <v>-1838500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -6115,25 +6115,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20100</v>
+        <v>19400</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>-29000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
-        <v>-11400</v>
+        <v>-4400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -6180,25 +6180,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-458800</v>
+        <v>-443700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>-1423100</v>
+        <v>91800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>1518000</v>
+        <v>1468200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
-        <v>2380100</v>
+        <v>1355300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15406700</v>
+        <v>7322100</v>
       </c>
       <c r="E8" s="3">
-        <v>7685800</v>
+        <v>14885600</v>
       </c>
       <c r="F8" s="3">
-        <v>15353400</v>
+        <v>7425800</v>
       </c>
       <c r="G8" s="3">
-        <v>7105400</v>
+        <v>14834100</v>
       </c>
       <c r="H8" s="3">
-        <v>14014400</v>
+        <v>6865100</v>
       </c>
       <c r="I8" s="3">
-        <v>7536700</v>
+        <v>13540400</v>
       </c>
       <c r="J8" s="3">
+        <v>7281800</v>
+      </c>
+      <c r="K8" s="3">
         <v>15654700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7889100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15674200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8116200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15807600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6867200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13942400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7068900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14172900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6513000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13673100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7267100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14498800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>12681600</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12697900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11985700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12252700</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12268400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11580300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>13043100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>12935200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>13105100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11413600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11652900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>11155500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>12109800</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>2725100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2655500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2028700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2632900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2565700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2611600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2739000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2702500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2528800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2520000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2517600</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2388900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>201200</v>
+        <v>84300</v>
       </c>
       <c r="E14" s="3">
-        <v>73600</v>
+        <v>194400</v>
       </c>
       <c r="F14" s="3">
-        <v>322100</v>
+        <v>71100</v>
       </c>
       <c r="G14" s="3">
-        <v>138300</v>
+        <v>311200</v>
       </c>
       <c r="H14" s="3">
-        <v>142200</v>
+        <v>133600</v>
       </c>
       <c r="I14" s="3">
-        <v>68800</v>
+        <v>137300</v>
       </c>
       <c r="J14" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K14" s="3">
         <v>279300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>85900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>188000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>81300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>263200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>68900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>195900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>75200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>236500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>80700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>247600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>76400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>595900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>751400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>604500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>890300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>575800</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>726000</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>584100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>641500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>617000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>565900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>548700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>1376200</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>473000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>14626000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14724800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>13729500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14131300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>14226800</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13265100</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>14983000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>14803600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>15036900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13175700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>13524100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>13015600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>13922000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>780700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>628600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>284900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>754300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>607300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>275200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>671700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>870700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>770700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>766700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>648700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>657500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>576800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>92900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>258300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-94900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-48800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-59900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-54800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2069600</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>2939800</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>1424700</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>3220000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1976100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1771200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1695400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1426000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1433700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1491400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>175100</v>
+        <v>46900</v>
       </c>
       <c r="E22" s="3">
-        <v>8400</v>
+        <v>169200</v>
       </c>
       <c r="F22" s="3">
-        <v>195300</v>
+        <v>8100</v>
       </c>
       <c r="G22" s="3">
-        <v>7600</v>
+        <v>188700</v>
       </c>
       <c r="H22" s="3">
-        <v>215200</v>
+        <v>7300</v>
       </c>
       <c r="I22" s="3">
-        <v>10300</v>
+        <v>207900</v>
       </c>
       <c r="J22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K22" s="3">
         <v>211100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>237900</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>235900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>182500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>199800</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>199700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>210300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>698500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>420600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>674800</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>406400</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>718900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>628600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>439900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>533200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>400100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>397900</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>311600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>246100</v>
+        <v>25100</v>
       </c>
       <c r="E24" s="3">
-        <v>104800</v>
+        <v>237800</v>
       </c>
       <c r="F24" s="3">
-        <v>92400</v>
+        <v>101200</v>
       </c>
       <c r="G24" s="3">
-        <v>48000</v>
+        <v>89200</v>
       </c>
       <c r="H24" s="3">
-        <v>62300</v>
+        <v>46400</v>
       </c>
       <c r="I24" s="3">
-        <v>69900</v>
+        <v>60200</v>
       </c>
       <c r="J24" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K24" s="3">
         <v>225400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>116300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>89100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>137000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>124700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>119000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>77100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>452300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>328200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-70300</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>437000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>317100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>493500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>512200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>350800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>396200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>275400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>278800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>234500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>344500</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>267900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-145200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>332800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>258900</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>439800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>408600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>177200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>226300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>219000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>130400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>287900</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-108400</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-18700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>4400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>16400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-53300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>77700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>75100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-258300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>94900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>50900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>48800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>59900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>54800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>339300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>255600</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-155400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>327800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>247000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>331400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>389900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>175100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>176900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>223400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>146800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>234600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>339300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>255600</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-155400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>327800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>247000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>331400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>389900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>175100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>176900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>223400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>146800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>234600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6158000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+        <v>5949700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6370900</v>
       </c>
       <c r="F41" s="3">
-        <v>6593900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
+        <v>7667900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6374500</v>
       </c>
       <c r="H41" s="3">
-        <v>7936300</v>
+        <v>4184200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>6597700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>4512100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>5389900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3244600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>7028000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>5414300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>6481100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1689100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>1632000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1359300</v>
       </c>
       <c r="F42" s="3">
-        <v>1406900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>1292200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>899500</v>
       </c>
       <c r="H42" s="3">
-        <v>1337400</v>
+        <v>919600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>930900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>991700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>628700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>803700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>675300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>791700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>500400</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10753200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
+        <v>10389500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9934000</v>
       </c>
       <c r="F43" s="3">
-        <v>10281800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+        <v>9940800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10191000</v>
       </c>
       <c r="H43" s="3">
-        <v>10288800</v>
+        <v>10054700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>10547700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>10842600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>10658000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>10169400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>9525100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>9987800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>10195700</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>885200</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
+        <v>855300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>870200</v>
       </c>
       <c r="F44" s="3">
-        <v>900700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
+        <v>872700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>864000</v>
       </c>
       <c r="H44" s="3">
-        <v>903300</v>
+        <v>918100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>894200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>990100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>967600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>834000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>809600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>771300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>844700</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>486600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
+        <v>470200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>687700</v>
       </c>
       <c r="F45" s="3">
-        <v>711800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+        <v>260200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>136100</v>
       </c>
       <c r="H45" s="3">
-        <v>269300</v>
+        <v>980700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>140900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1057600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>486200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>839600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>625200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>286600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>155200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19972200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
+        <v>19296700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19222200</v>
       </c>
       <c r="F46" s="3">
-        <v>19895100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
+        <v>20033800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>18465100</v>
       </c>
       <c r="H46" s="3">
-        <v>20735100</v>
+        <v>17057400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>19111500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>18394100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>18130400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>15891300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>18663300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>17251600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>18177000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7939600</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+        <v>7671100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6657100</v>
       </c>
       <c r="F47" s="3">
-        <v>6890100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+        <v>3988000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4078300</v>
       </c>
       <c r="H47" s="3">
-        <v>4127700</v>
+        <v>3981700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>4221000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>4293700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>4312300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3978200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>4431700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>4581000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>5157400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11158900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>10781500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10632100</v>
       </c>
       <c r="F48" s="3">
-        <v>11004300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+        <v>9812500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10193900</v>
       </c>
       <c r="H48" s="3">
-        <v>10156000</v>
+        <v>9740700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>10550800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>10504100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>20596800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>8036000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>16368500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7829600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>8424700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12347600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+        <v>11930000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11787400</v>
       </c>
       <c r="F49" s="3">
-        <v>12200000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+        <v>11043200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10928700</v>
       </c>
       <c r="H49" s="3">
-        <v>11429800</v>
+        <v>10462200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>11311300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>11282000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>16837300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>10573400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>10555800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>10748100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>11313800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1246800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>1204600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1189200</v>
       </c>
       <c r="F52" s="3">
-        <v>1230800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>1117900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1082100</v>
       </c>
       <c r="H52" s="3">
-        <v>1157000</v>
+        <v>1225600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1120000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1321700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1271700</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1164600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1113200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1394000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1472300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52665100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
+        <v>50883800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49487900</v>
       </c>
       <c r="F54" s="3">
-        <v>51220400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
+        <v>45995400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44748000</v>
       </c>
       <c r="H54" s="3">
-        <v>47605600</v>
+        <v>42467600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>46314600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>45795600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>46481100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>39643400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>42948300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>41804200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>44545200</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13384200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+        <v>12931500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12927700</v>
       </c>
       <c r="F57" s="3">
-        <v>13380300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+        <v>11754300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>12822100</v>
       </c>
       <c r="H57" s="3">
-        <v>12165800</v>
+        <v>11106200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>13271000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>11976600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>13011200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>11186000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>11352300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>10772200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>11972700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9670300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>9343200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8527900</v>
       </c>
       <c r="F58" s="3">
-        <v>8826400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>8473600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6776300</v>
       </c>
       <c r="H58" s="3">
-        <v>8770300</v>
+        <v>5550600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>7013500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>5985500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>6191900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5417800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5403400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5262100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5876700</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1086900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>1050100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>853100</v>
       </c>
       <c r="F59" s="3">
-        <v>883000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+        <v>963800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>963800</v>
       </c>
       <c r="H59" s="3">
+        <v>1089800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>997600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
-        <v>997600</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>1175200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>868100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>991500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>1068400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>875500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>935800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24141400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
+        <v>23324900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22308700</v>
       </c>
       <c r="F60" s="3">
-        <v>23089600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
+        <v>21191800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>20562200</v>
       </c>
       <c r="H60" s="3">
-        <v>21933700</v>
+        <v>17746600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>21282100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>19137300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>20071300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>17595300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>17824000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>16909800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>18785200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13118100</v>
+        <v>12674400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>13236200</v>
       </c>
       <c r="F61" s="3">
-        <v>13699600</v>
+        <v>13085600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>11765100</v>
       </c>
       <c r="H61" s="3">
-        <v>13543700</v>
+        <v>12787600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>12177000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13789800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13099000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9974300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>10611100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>10132200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>9794300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5122200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>4948900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4872400</v>
       </c>
       <c r="F62" s="3">
-        <v>5043000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+        <v>4734400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4698800</v>
       </c>
       <c r="H62" s="3">
-        <v>4900200</v>
+        <v>4520000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>4863300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>4874200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>5005400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4637600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>4826000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>5316800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>5546400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43688400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+        <v>42210700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>41615700</v>
       </c>
       <c r="F66" s="3">
-        <v>43072600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
+        <v>40221500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>38274900</v>
       </c>
       <c r="H66" s="3">
-        <v>41629600</v>
+        <v>36333600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>39614800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>39180900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>39538000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>33427000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>34555600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>33611000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>35449100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4190300</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+        <v>-4048600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4016200</v>
       </c>
       <c r="F72" s="3">
-        <v>-4156800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
+        <v>-4283700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-3827300</v>
       </c>
       <c r="H72" s="3">
-        <v>-4433600</v>
+        <v>-4164500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8976700</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
+        <v>8673100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7872200</v>
       </c>
       <c r="F76" s="3">
-        <v>8147800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
+        <v>5773900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6473100</v>
       </c>
       <c r="H76" s="3">
-        <v>5976000</v>
+        <v>6134000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>6699700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>6614700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>6943100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>6216400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>8392700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>8193200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>9096100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>339300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>255600</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-155400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>327800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>247000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>331400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>389900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>175100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>176900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>223400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>146800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>234600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1196100</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>2323900</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>1217500</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>2289900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1109700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1095400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>979700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>839800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>861100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>969400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1178900</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>3078800</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>464900</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>3486400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>629500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>2665100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>652700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>2223600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>526500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>2396300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-700900</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1816300</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-682100</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-791200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-637800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-560400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-403100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-542600</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-6932700</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-963000</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-288300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-476600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-676600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-457400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-957800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-542200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-481000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-391100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-746300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-729800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-49100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-610200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-60600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-590700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-24200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1099400</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>3974700</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>1996800</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>717700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>671000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-921700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>827700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>19400</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>-29000</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>-30500</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>6900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-6500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-32100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>17400</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-443700</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>91800</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>1468200</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>1355300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-986400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>1978800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>1762000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-886000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>2335900</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,185 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7322100</v>
+        <v>10311500</v>
       </c>
       <c r="E8" s="3">
-        <v>14885600</v>
+        <v>15426300</v>
       </c>
       <c r="F8" s="3">
-        <v>7425800</v>
+        <v>6966300</v>
       </c>
       <c r="G8" s="3">
-        <v>14834100</v>
+        <v>14162200</v>
       </c>
       <c r="H8" s="3">
-        <v>6865100</v>
+        <v>7065000</v>
       </c>
       <c r="I8" s="3">
+        <v>14113300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6531500</v>
+      </c>
+      <c r="K8" s="3">
         <v>13540400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7281800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15654700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7889100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15674200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8116200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15807600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6867200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13942400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7068900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14172900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6513000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13673100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7267100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14498800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,67 +851,73 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>12252700</v>
+        <v>12851700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>12268400</v>
+        <v>11657300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>11672200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11580300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>13043100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>12935200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>13105100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11413600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>11652900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>11155500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>12109800</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,67 +925,73 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>2632900</v>
+        <v>2574600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2565700</v>
+        <v>2505000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1960000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2611600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2739000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2702500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2528800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2520000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2517600</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2388900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1160,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>84300</v>
+        <v>75800</v>
       </c>
       <c r="E14" s="3">
-        <v>194400</v>
+        <v>177600</v>
       </c>
       <c r="F14" s="3">
-        <v>71100</v>
+        <v>80200</v>
       </c>
       <c r="G14" s="3">
-        <v>311200</v>
+        <v>185000</v>
       </c>
       <c r="H14" s="3">
-        <v>133600</v>
+        <v>67700</v>
       </c>
       <c r="I14" s="3">
+        <v>296100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K14" s="3">
         <v>137300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>66400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>279300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>85900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>188000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>81300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>263200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>68900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>195900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>75200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>236500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>80700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>247600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>76400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>890300</v>
+        <v>761800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>575800</v>
+        <v>847000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>726000</v>
+        <v>547800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>690700</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>584100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>641500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>617000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>565900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>548700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>1376200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>473000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1348,73 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>14131300</v>
+        <v>14885300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>14226800</v>
+        <v>13444600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>13535500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>13265100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>14983000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>14803600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>15036900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>13175700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>13524100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>13015600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>13922000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1422,73 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>754300</v>
+        <v>541100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>607300</v>
+        <v>717600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>577800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>275200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>671700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>870700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>770700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>766700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>648700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>657500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>576800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,203 +1524,221 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>89800</v>
+        <v>-79800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-12200</v>
+        <v>85400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-75100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>258300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-94900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-50900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-48800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-59900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-54800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>2658700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>1902500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>2702400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>3220000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1976100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1771200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1695400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1426000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1433700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1491400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>46900</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>169200</v>
+        <v>168500</v>
       </c>
       <c r="F22" s="3">
-        <v>8100</v>
+        <v>44600</v>
       </c>
       <c r="G22" s="3">
-        <v>188700</v>
+        <v>161000</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="I22" s="3">
+        <v>179600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K22" s="3">
         <v>207900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>211100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>237900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>235900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>182500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>199800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>199700</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>210300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,135 +1746,147 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>674800</v>
+        <v>292800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>406400</v>
+        <v>642000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>386600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>718900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>628600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>439900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>533200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>400100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>397900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>311600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>25100</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>237800</v>
+        <v>132600</v>
       </c>
       <c r="F24" s="3">
-        <v>101200</v>
+        <v>23900</v>
       </c>
       <c r="G24" s="3">
-        <v>89200</v>
+        <v>226300</v>
       </c>
       <c r="H24" s="3">
-        <v>46400</v>
+        <v>96300</v>
       </c>
       <c r="I24" s="3">
+        <v>84900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K24" s="3">
         <v>60200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>67500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>225400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>116300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>89100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>137000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>124700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>119000</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>77100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1953,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1968,73 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>437000</v>
+        <v>160100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>317100</v>
+        <v>415800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>301700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-68000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>493500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>512200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>350800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>396200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>275400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>278800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>234500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +2042,73 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>332800</v>
+        <v>103000</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>258900</v>
+        <v>316700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>246300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-140300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>439800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>408600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>177200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>226300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>219000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>130400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>287900</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,67 +2190,73 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-5000</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-11900</v>
+        <v>-4800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9800</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-108400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-18700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-49400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>4400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>16400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-53300</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,67 +2412,73 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-89800</v>
+        <v>79800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>12200</v>
+        <v>-85400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>75100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-258300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>94900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>50900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>48800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>59900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>54800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2486,73 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>327800</v>
+        <v>107700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>247000</v>
+        <v>311900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-150100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>331400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>389900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>175100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>176900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>223400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>146800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>234600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2619,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2634,152 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>327800</v>
+        <v>107700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>247000</v>
+        <v>311900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-150100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>331400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>389900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>175100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>176900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>223400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>146800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>234600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,25 +2832,27 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5949700</v>
+        <v>10917400</v>
       </c>
       <c r="E41" s="3">
-        <v>6370900</v>
+        <v>5660600</v>
       </c>
       <c r="F41" s="3">
-        <v>7667900</v>
+        <v>6061300</v>
       </c>
       <c r="G41" s="3">
-        <v>6374500</v>
+        <v>7295300</v>
       </c>
       <c r="H41" s="3">
-        <v>4184200</v>
+        <v>6064800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -2687,67 +2860,73 @@
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>6597700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>4512100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5389900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>3244600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>7028000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>5414300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>6481100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1632000</v>
+        <v>1712500</v>
       </c>
       <c r="E42" s="3">
-        <v>1359300</v>
+        <v>1552700</v>
       </c>
       <c r="F42" s="3">
-        <v>1292200</v>
+        <v>1293200</v>
       </c>
       <c r="G42" s="3">
-        <v>899500</v>
+        <v>1229400</v>
       </c>
       <c r="H42" s="3">
-        <v>919600</v>
+        <v>855700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2755,67 +2934,73 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>930900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>991700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>628700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>803700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>675300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>791700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>500400</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10389500</v>
+        <v>10394900</v>
       </c>
       <c r="E43" s="3">
-        <v>9934000</v>
+        <v>9884600</v>
       </c>
       <c r="F43" s="3">
-        <v>9940800</v>
+        <v>9451300</v>
       </c>
       <c r="G43" s="3">
-        <v>10191000</v>
+        <v>9457800</v>
       </c>
       <c r="H43" s="3">
-        <v>10054700</v>
+        <v>9695800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -2823,67 +3008,73 @@
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>10547700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>10842600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>10658000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>10169400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>9525100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>9987800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>10195700</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>855300</v>
+        <v>847200</v>
       </c>
       <c r="E44" s="3">
-        <v>870200</v>
+        <v>813700</v>
       </c>
       <c r="F44" s="3">
-        <v>872700</v>
+        <v>827900</v>
       </c>
       <c r="G44" s="3">
-        <v>864000</v>
+        <v>830300</v>
       </c>
       <c r="H44" s="3">
-        <v>918100</v>
+        <v>822000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -2891,67 +3082,73 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>894200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>990100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>967600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>834000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>809600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>771300</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>844700</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>470200</v>
+        <v>460400</v>
       </c>
       <c r="E45" s="3">
-        <v>687700</v>
+        <v>447300</v>
       </c>
       <c r="F45" s="3">
-        <v>260200</v>
+        <v>654300</v>
       </c>
       <c r="G45" s="3">
-        <v>136100</v>
+        <v>247500</v>
       </c>
       <c r="H45" s="3">
-        <v>980700</v>
+        <v>129500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2959,67 +3156,73 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>140900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1057600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>486200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>839600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>625200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>286600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>155200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19296700</v>
+        <v>24332400</v>
       </c>
       <c r="E46" s="3">
-        <v>19222200</v>
+        <v>18359000</v>
       </c>
       <c r="F46" s="3">
-        <v>20033800</v>
+        <v>18288100</v>
       </c>
       <c r="G46" s="3">
-        <v>18465100</v>
+        <v>19060300</v>
       </c>
       <c r="H46" s="3">
-        <v>17057400</v>
+        <v>17567800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -3027,67 +3230,73 @@
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>19111500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>18394100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>18130400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>15891300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>18663300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>17251600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>18177000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7671100</v>
+        <v>7250400</v>
       </c>
       <c r="E47" s="3">
-        <v>6657100</v>
+        <v>7298300</v>
       </c>
       <c r="F47" s="3">
-        <v>3988000</v>
+        <v>6333600</v>
       </c>
       <c r="G47" s="3">
-        <v>4078300</v>
+        <v>3794300</v>
       </c>
       <c r="H47" s="3">
-        <v>3981700</v>
+        <v>3880100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3095,67 +3304,73 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>4221000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>4293700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4312300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>3978200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>4431700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>4581000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>5157400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10781500</v>
+        <v>10653300</v>
       </c>
       <c r="E48" s="3">
-        <v>10632100</v>
+        <v>10257600</v>
       </c>
       <c r="F48" s="3">
-        <v>9812500</v>
+        <v>10115500</v>
       </c>
       <c r="G48" s="3">
-        <v>10193900</v>
+        <v>9335700</v>
       </c>
       <c r="H48" s="3">
-        <v>9740700</v>
+        <v>9698600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -3163,67 +3378,73 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>10550800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>10504100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>20596800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>8036000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>16368500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>7829600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>8424700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11930000</v>
+        <v>11661600</v>
       </c>
       <c r="E49" s="3">
-        <v>11787400</v>
+        <v>11350300</v>
       </c>
       <c r="F49" s="3">
-        <v>11043200</v>
+        <v>11214600</v>
       </c>
       <c r="G49" s="3">
-        <v>10928700</v>
+        <v>10506600</v>
       </c>
       <c r="H49" s="3">
-        <v>10462200</v>
+        <v>10397700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -3231,50 +3452,56 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>11311300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>11282000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>16837300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>10573400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>10555800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>10748100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>11313800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3642,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1204600</v>
+        <v>1191200</v>
       </c>
       <c r="E52" s="3">
-        <v>1189200</v>
+        <v>1146000</v>
       </c>
       <c r="F52" s="3">
-        <v>1117900</v>
+        <v>1131400</v>
       </c>
       <c r="G52" s="3">
-        <v>1082100</v>
+        <v>1063500</v>
       </c>
       <c r="H52" s="3">
-        <v>1225600</v>
+        <v>1029500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3435,50 +3674,56 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1120000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1321700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1271700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1164600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1113200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1394000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1472300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,25 +3790,31 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50883800</v>
+        <v>55088900</v>
       </c>
       <c r="E54" s="3">
-        <v>49487900</v>
+        <v>48411200</v>
       </c>
       <c r="F54" s="3">
-        <v>45995400</v>
+        <v>47083200</v>
       </c>
       <c r="G54" s="3">
-        <v>44748000</v>
+        <v>43760400</v>
       </c>
       <c r="H54" s="3">
-        <v>42467600</v>
+        <v>42573600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -3571,50 +3822,56 @@
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>46314600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>45795600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>46481100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>39643400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>42948300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>41804200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>44545200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3924,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12931500</v>
+        <v>14062400</v>
       </c>
       <c r="E57" s="3">
-        <v>12927700</v>
+        <v>12303200</v>
       </c>
       <c r="F57" s="3">
-        <v>11754300</v>
+        <v>12299500</v>
       </c>
       <c r="G57" s="3">
-        <v>12822100</v>
+        <v>11183200</v>
       </c>
       <c r="H57" s="3">
-        <v>11106200</v>
+        <v>12199100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -3691,67 +3952,73 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>13271000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>11976600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>13011200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>11186000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>11352300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>10772200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>11972700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9343200</v>
+        <v>9628400</v>
       </c>
       <c r="E58" s="3">
-        <v>8527900</v>
+        <v>8889200</v>
       </c>
       <c r="F58" s="3">
-        <v>8473600</v>
+        <v>8113500</v>
       </c>
       <c r="G58" s="3">
-        <v>6776300</v>
+        <v>8061900</v>
       </c>
       <c r="H58" s="3">
-        <v>5550600</v>
+        <v>6447000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3759,67 +4026,73 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>7013500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5985500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6191900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5417800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5403400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5262100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5876700</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1050100</v>
+        <v>1028400</v>
       </c>
       <c r="E59" s="3">
-        <v>853100</v>
+        <v>999100</v>
       </c>
       <c r="F59" s="3">
-        <v>963800</v>
+        <v>811600</v>
       </c>
       <c r="G59" s="3">
-        <v>963800</v>
+        <v>917000</v>
       </c>
       <c r="H59" s="3">
-        <v>1089800</v>
+        <v>917000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -3827,67 +4100,73 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>997600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1175200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>868100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>991500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>1068400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>875500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>935800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23324900</v>
+        <v>24719100</v>
       </c>
       <c r="E60" s="3">
-        <v>22308700</v>
+        <v>22191400</v>
       </c>
       <c r="F60" s="3">
-        <v>21191800</v>
+        <v>21224600</v>
       </c>
       <c r="G60" s="3">
-        <v>20562200</v>
+        <v>20162000</v>
       </c>
       <c r="H60" s="3">
-        <v>17746600</v>
+        <v>19563100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -3895,67 +4174,73 @@
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>21282100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>19137300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>20071300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>17595300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>17824000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>16909800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>18785200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12674400</v>
+        <v>12206300</v>
       </c>
       <c r="E61" s="3">
-        <v>13236200</v>
+        <v>12058500</v>
       </c>
       <c r="F61" s="3">
-        <v>13085600</v>
+        <v>12593000</v>
       </c>
       <c r="G61" s="3">
-        <v>11765100</v>
+        <v>12449700</v>
       </c>
       <c r="H61" s="3">
-        <v>12787600</v>
+        <v>11193400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3964,66 +4249,72 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>12177000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13789800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>13099000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9974300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>10611100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>10132200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>9794300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4948900</v>
+        <v>4909500</v>
       </c>
       <c r="E62" s="3">
-        <v>4872400</v>
+        <v>4708400</v>
       </c>
       <c r="F62" s="3">
-        <v>4734400</v>
+        <v>4610800</v>
       </c>
       <c r="G62" s="3">
-        <v>4698800</v>
+        <v>4504400</v>
       </c>
       <c r="H62" s="3">
-        <v>4520000</v>
+        <v>4470400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4031,50 +4322,56 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>4863300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4874200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5005400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>4637600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>4826000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>5316800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5546400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,25 +4586,31 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42210700</v>
+        <v>43134400</v>
       </c>
       <c r="E66" s="3">
-        <v>41615700</v>
+        <v>40159600</v>
       </c>
       <c r="F66" s="3">
-        <v>40221500</v>
+        <v>39569400</v>
       </c>
       <c r="G66" s="3">
-        <v>38274900</v>
+        <v>38267100</v>
       </c>
       <c r="H66" s="3">
-        <v>36333600</v>
+        <v>36415000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -4303,50 +4618,56 @@
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>39614800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>39180900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>39538000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>33427000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>34555600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>33611000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>35449100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,25 +4984,31 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4048600</v>
+        <v>-3543000</v>
       </c>
       <c r="E72" s="3">
-        <v>-4016200</v>
+        <v>-3851900</v>
       </c>
       <c r="F72" s="3">
-        <v>-4283700</v>
+        <v>-3796900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3827300</v>
+        <v>-4075500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4164500</v>
+        <v>-3641400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -4669,50 +5016,56 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,25 +5280,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8673100</v>
+        <v>11954500</v>
       </c>
       <c r="E76" s="3">
-        <v>7872200</v>
+        <v>8251600</v>
       </c>
       <c r="F76" s="3">
-        <v>5773900</v>
+        <v>7513800</v>
       </c>
       <c r="G76" s="3">
-        <v>6473100</v>
+        <v>5493300</v>
       </c>
       <c r="H76" s="3">
-        <v>6134000</v>
+        <v>6158600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -4941,50 +5312,56 @@
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>6699700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>6614700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>6943100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>6216400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>8392700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>8193200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>9096100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5428,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5522,73 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>327800</v>
+        <v>107700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>247000</v>
+        <v>311900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-150100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>331400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>389900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>175100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>176900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>223400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>146800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>234600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>2197400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>1099400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>2136200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>2289900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1109700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1095400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>979700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>839800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>861100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>969400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="E89" s="3">
+        <v>3266500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+      <c r="G89" s="3">
+        <v>1083700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>2830100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>3486400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>629500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2665100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>652700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2223600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>526500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2396300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>-1794300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>-644300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-1669600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-791200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-637800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-560400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-403100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-882800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>-498800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>-6372700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-288300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-476600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-676600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-457400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-957800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,67 +6494,73 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-554500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-412000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-287600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-746300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-729800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-49100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-610200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-60600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-590700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-24200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>2381600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>-1010600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>3653600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>717700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>671000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-921700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>827700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="E101" s="3">
+        <v>65600</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>17900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+      <c r="I101" s="3">
+        <v>-26700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>6900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-11300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-32100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>17400</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>4830800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+      <c r="G102" s="3">
+        <v>-407900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>84400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>1355300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-986400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1978800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>1762000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-886000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>2335900</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10311500</v>
+        <v>20143100</v>
       </c>
       <c r="E8" s="3">
-        <v>15426300</v>
+        <v>9909200</v>
       </c>
       <c r="F8" s="3">
-        <v>6966300</v>
+        <v>14824400</v>
       </c>
       <c r="G8" s="3">
-        <v>14162200</v>
+        <v>6694400</v>
       </c>
       <c r="H8" s="3">
-        <v>7065000</v>
+        <v>13609600</v>
       </c>
       <c r="I8" s="3">
-        <v>14113300</v>
+        <v>6789300</v>
       </c>
       <c r="J8" s="3">
+        <v>13562500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6531500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13540400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7281800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15654700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7889100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15674200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8116200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15807600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6867200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13942400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7068900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14172900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6513000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13673100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7267100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14498800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12851700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11657300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11672200</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>16575800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12350200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11202400</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11216800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11580300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>13043100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>12935200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>13105100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>11413600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>11652900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>11155500</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>12109800</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2574600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2505000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2441000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>3567300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2474200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2407200</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2345800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1960000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2611600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2739000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2702500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2528800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2520000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2517600</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2388900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>75800</v>
+        <v>312800</v>
       </c>
       <c r="E14" s="3">
-        <v>177600</v>
+        <v>72800</v>
       </c>
       <c r="F14" s="3">
-        <v>80200</v>
+        <v>170700</v>
       </c>
       <c r="G14" s="3">
-        <v>185000</v>
+        <v>77100</v>
       </c>
       <c r="H14" s="3">
-        <v>67700</v>
+        <v>177700</v>
       </c>
       <c r="I14" s="3">
-        <v>296100</v>
+        <v>65000</v>
       </c>
       <c r="J14" s="3">
+        <v>284600</v>
+      </c>
+      <c r="K14" s="3">
         <v>127100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>137300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>66400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>279300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>85900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>188000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>81300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>263200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>68900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>195900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>75200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>236500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>80700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>247600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>76400</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>761800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>847000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>547800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>732100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>814000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>526400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>690700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>584100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>641500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>617000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>565900</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>548700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>1376200</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>473000</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>14885300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13444600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>13535500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>19021100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14304400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12920000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13007300</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>13265100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>14983000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>14803600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>15036900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>13175700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>13524100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>13015600</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>13922000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>541100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>717600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>577800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>1122000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>519900</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>689600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>555300</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>275200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>671700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>870700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>770700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>766700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>648700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>657500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>576800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,105 +1548,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-79800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>85400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-204400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>82100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-75100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>258300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-94900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-50900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-48800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-59900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2658700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1902500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2702400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>2157900</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2554900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1828200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2596900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1621,272 +1658,284 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>3220000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1976100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1771200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1695400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1426000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1433700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1491400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>168500</v>
+      <c r="D22" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>44600</v>
+        <v>161900</v>
       </c>
       <c r="G22" s="3">
-        <v>161000</v>
+        <v>42900</v>
       </c>
       <c r="H22" s="3">
-        <v>7700</v>
+        <v>154700</v>
       </c>
       <c r="I22" s="3">
-        <v>179600</v>
+        <v>7400</v>
       </c>
       <c r="J22" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>207900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>211100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>237900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>235900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>182500</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>199800</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>199700</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>210300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>292800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>642000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>386600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>631400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>281400</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>617000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>718900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>628600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>439900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>533200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>400100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>397900</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>311600</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>132600</v>
+      <c r="D24" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>127500</v>
       </c>
       <c r="G24" s="3">
-        <v>226300</v>
+        <v>22900</v>
       </c>
       <c r="H24" s="3">
-        <v>96300</v>
+        <v>217400</v>
       </c>
       <c r="I24" s="3">
-        <v>84900</v>
+        <v>92600</v>
       </c>
       <c r="J24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K24" s="3">
         <v>44100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>225400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>116300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>89100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>137000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>124700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>119000</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>77100</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>160100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>415800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>301700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>153900</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>399600</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>289900</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-68000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>493500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>512200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>350800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>396200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>275400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>278800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>234500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>103000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>316700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>246300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>98900</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>304300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>236700</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-140300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>439800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>408600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>177200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>226300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>219000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>130400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>287900</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,82 +2239,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-9800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-108400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-18700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-49400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>4400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>16400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-53300</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>79800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-85400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>76700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>75100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-258300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>94900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>50900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>48800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>59900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>54800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>311900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>235000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>103500</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>299700</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-150100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>331400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>389900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>175100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>176900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>223400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>146800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>234600</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>311900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>235000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>103500</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>299700</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-150100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>331400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>389900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>175100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>176900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>223400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>146800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>234600</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,28 +2920,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10917400</v>
+        <v>7156200</v>
       </c>
       <c r="E41" s="3">
-        <v>5660600</v>
+        <v>10491400</v>
       </c>
       <c r="F41" s="3">
-        <v>6061300</v>
+        <v>5439700</v>
       </c>
       <c r="G41" s="3">
-        <v>7295300</v>
+        <v>5824800</v>
       </c>
       <c r="H41" s="3">
-        <v>6064800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>7010600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5828100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2866,70 +2953,73 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>6597700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>4512100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>5389900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>3244600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>7028000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>5414300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>6481100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1712500</v>
+        <v>2743600</v>
       </c>
       <c r="E42" s="3">
-        <v>1552700</v>
+        <v>1645700</v>
       </c>
       <c r="F42" s="3">
-        <v>1293200</v>
+        <v>1492100</v>
       </c>
       <c r="G42" s="3">
-        <v>1229400</v>
+        <v>1242800</v>
       </c>
       <c r="H42" s="3">
-        <v>855700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>1181400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>822400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2940,70 +3030,73 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>930900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>991700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>628700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>803700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>675300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>791700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>500400</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10394900</v>
+        <v>13789900</v>
       </c>
       <c r="E43" s="3">
-        <v>9884600</v>
+        <v>9989300</v>
       </c>
       <c r="F43" s="3">
-        <v>9451300</v>
+        <v>9498900</v>
       </c>
       <c r="G43" s="3">
-        <v>9457800</v>
+        <v>9082500</v>
       </c>
       <c r="H43" s="3">
-        <v>9695800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>9088700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9317400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3014,70 +3107,73 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>10547700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>10842600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>10658000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>10169400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>9525100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>9987800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>10195700</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>847200</v>
+        <v>1436600</v>
       </c>
       <c r="E44" s="3">
-        <v>813700</v>
+        <v>814200</v>
       </c>
       <c r="F44" s="3">
-        <v>827900</v>
+        <v>782000</v>
       </c>
       <c r="G44" s="3">
-        <v>830300</v>
+        <v>795600</v>
       </c>
       <c r="H44" s="3">
-        <v>822000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>797900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>789900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3088,70 +3184,73 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>894200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>990100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>967600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>834000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>809600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>771300</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>844700</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>460400</v>
+        <v>1558900</v>
       </c>
       <c r="E45" s="3">
-        <v>447300</v>
+        <v>442400</v>
       </c>
       <c r="F45" s="3">
-        <v>654300</v>
+        <v>429900</v>
       </c>
       <c r="G45" s="3">
-        <v>247500</v>
+        <v>628800</v>
       </c>
       <c r="H45" s="3">
-        <v>129500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>237900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>124500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3162,70 +3261,73 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>140900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1057600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>486200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>839600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>625200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>286600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>155200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24332400</v>
+        <v>26685200</v>
       </c>
       <c r="E46" s="3">
-        <v>18359000</v>
+        <v>23382900</v>
       </c>
       <c r="F46" s="3">
-        <v>18288100</v>
+        <v>17642600</v>
       </c>
       <c r="G46" s="3">
-        <v>19060300</v>
+        <v>17574500</v>
       </c>
       <c r="H46" s="3">
-        <v>17567800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>18316600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>16882300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3236,70 +3338,73 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>19111500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>18394100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>18130400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>15891300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>18663300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>17251600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>18177000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7250400</v>
+        <v>3845300</v>
       </c>
       <c r="E47" s="3">
-        <v>7298300</v>
+        <v>6967400</v>
       </c>
       <c r="F47" s="3">
-        <v>6333600</v>
+        <v>7013500</v>
       </c>
       <c r="G47" s="3">
-        <v>3794300</v>
+        <v>6086400</v>
       </c>
       <c r="H47" s="3">
-        <v>3880100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>3646200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3728700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3310,70 +3415,73 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>4221000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>4293700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>4312300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>3978200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>4431700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>4581000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>5157400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10653300</v>
+        <v>17950300</v>
       </c>
       <c r="E48" s="3">
-        <v>10257600</v>
+        <v>10237600</v>
       </c>
       <c r="F48" s="3">
-        <v>10115500</v>
+        <v>9857300</v>
       </c>
       <c r="G48" s="3">
-        <v>9335700</v>
+        <v>9720800</v>
       </c>
       <c r="H48" s="3">
-        <v>9698600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>8971400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9320100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3384,70 +3492,73 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>10550800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>10504100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>20596800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>8036000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>16368500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>7829600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>8424700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11661600</v>
+        <v>21396200</v>
       </c>
       <c r="E49" s="3">
-        <v>11350300</v>
+        <v>11206600</v>
       </c>
       <c r="F49" s="3">
-        <v>11214600</v>
+        <v>10907400</v>
       </c>
       <c r="G49" s="3">
-        <v>10506600</v>
+        <v>10777000</v>
       </c>
       <c r="H49" s="3">
-        <v>10397700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>10096600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9992000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3458,50 +3569,53 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>11311300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>11282000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>16837300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>10573400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>10555800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>10748100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>11313800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1191200</v>
+        <v>2123500</v>
       </c>
       <c r="E52" s="3">
-        <v>1146000</v>
+        <v>1144700</v>
       </c>
       <c r="F52" s="3">
-        <v>1131400</v>
+        <v>1101300</v>
       </c>
       <c r="G52" s="3">
-        <v>1063500</v>
+        <v>1087300</v>
       </c>
       <c r="H52" s="3">
-        <v>1029500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>1022000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>989300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3680,50 +3800,53 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1120000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1321700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1271700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1164600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1113200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1394000</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1472300</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55088900</v>
+        <v>72000500</v>
       </c>
       <c r="E54" s="3">
-        <v>48411200</v>
+        <v>52939300</v>
       </c>
       <c r="F54" s="3">
-        <v>47083200</v>
+        <v>46522100</v>
       </c>
       <c r="G54" s="3">
-        <v>43760400</v>
+        <v>45246000</v>
       </c>
       <c r="H54" s="3">
-        <v>42573600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>42052800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>40912400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3828,50 +3954,53 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>46314600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>45795600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>46481100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>39643400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>42948300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>41804200</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>44545200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14062400</v>
+        <v>17758400</v>
       </c>
       <c r="E57" s="3">
-        <v>12303200</v>
+        <v>13513700</v>
       </c>
       <c r="F57" s="3">
-        <v>12299500</v>
+        <v>11823100</v>
       </c>
       <c r="G57" s="3">
-        <v>11183200</v>
+        <v>11819600</v>
       </c>
       <c r="H57" s="3">
-        <v>12199100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>10746800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>11723000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3958,70 +4089,73 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>13271000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>11976600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>13011200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>11186000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>11352300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>10772200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>11972700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9628400</v>
+        <v>7659800</v>
       </c>
       <c r="E58" s="3">
-        <v>8889200</v>
+        <v>9252700</v>
       </c>
       <c r="F58" s="3">
-        <v>8113500</v>
+        <v>8542300</v>
       </c>
       <c r="G58" s="3">
-        <v>8061900</v>
+        <v>7796900</v>
       </c>
       <c r="H58" s="3">
-        <v>6447000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>7747300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6195400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4032,70 +4166,73 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>7013500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5985500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>6191900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5417800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>5403400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>5262100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5876700</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1028400</v>
+        <v>1626900</v>
       </c>
       <c r="E59" s="3">
-        <v>999100</v>
+        <v>988200</v>
       </c>
       <c r="F59" s="3">
-        <v>811600</v>
+        <v>960100</v>
       </c>
       <c r="G59" s="3">
-        <v>917000</v>
+        <v>780000</v>
       </c>
       <c r="H59" s="3">
-        <v>917000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>881200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>881200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4106,70 +4243,73 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>997600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>1175200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>868100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>991500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>1068400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>875500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>935800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24719100</v>
+        <v>27045100</v>
       </c>
       <c r="E60" s="3">
-        <v>22191400</v>
+        <v>23754600</v>
       </c>
       <c r="F60" s="3">
-        <v>21224600</v>
+        <v>21325500</v>
       </c>
       <c r="G60" s="3">
-        <v>20162000</v>
+        <v>20396400</v>
       </c>
       <c r="H60" s="3">
-        <v>19563100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>19375300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>18799700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4180,70 +4320,73 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>21282100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>19137300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>20071300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>17595300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>17824000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>16909800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>18785200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12206300</v>
+        <v>22920800</v>
       </c>
       <c r="E61" s="3">
-        <v>12058500</v>
+        <v>11730000</v>
       </c>
       <c r="F61" s="3">
-        <v>12593000</v>
+        <v>11588000</v>
       </c>
       <c r="G61" s="3">
-        <v>12449700</v>
+        <v>12101700</v>
       </c>
       <c r="H61" s="3">
-        <v>11193400</v>
+        <v>11963900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>10756700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4255,69 +4398,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>12177000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>13789800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>13099000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9974300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>10611100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>10132200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>9794300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4909500</v>
+        <v>6855600</v>
       </c>
       <c r="E62" s="3">
-        <v>4708400</v>
+        <v>4717900</v>
       </c>
       <c r="F62" s="3">
-        <v>4610800</v>
+        <v>4524700</v>
       </c>
       <c r="G62" s="3">
-        <v>4504400</v>
+        <v>4430800</v>
       </c>
       <c r="H62" s="3">
-        <v>4470400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>4328600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4296000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4328,50 +4474,53 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>4863300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>4874200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>5005400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>4637600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>4826000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>5316800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>5546400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43134400</v>
+        <v>59789700</v>
       </c>
       <c r="E66" s="3">
-        <v>40159600</v>
+        <v>41451200</v>
       </c>
       <c r="F66" s="3">
-        <v>39569400</v>
+        <v>38592500</v>
       </c>
       <c r="G66" s="3">
-        <v>38267100</v>
+        <v>38025400</v>
       </c>
       <c r="H66" s="3">
-        <v>36415000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>36773800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>34994100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4624,50 +4782,53 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>39614800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>39180900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>39538000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>33427000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>34555600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>33611000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>35449100</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3543000</v>
+        <v>-3997800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3851900</v>
+        <v>-3404700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3796900</v>
+        <v>-3701600</v>
       </c>
       <c r="G72" s="3">
-        <v>-4075500</v>
+        <v>-3648800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3641400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>-3916500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3499300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5022,50 +5196,53 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11954500</v>
+        <v>12210800</v>
       </c>
       <c r="E76" s="3">
-        <v>8251600</v>
+        <v>11488100</v>
       </c>
       <c r="F76" s="3">
-        <v>7513800</v>
+        <v>7929600</v>
       </c>
       <c r="G76" s="3">
-        <v>5493300</v>
+        <v>7220600</v>
       </c>
       <c r="H76" s="3">
-        <v>6158600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>5278900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>5918300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5318,50 +5504,53 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>6699700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>6614700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>6943100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>6216400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>8392700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>8193200</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>9096100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>311900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>235000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>103500</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>299700</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-150100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>331400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>389900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>175100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>176900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>223400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>146800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>234600</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,31 +5813,32 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2197400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1099400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2136200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>1240300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2111700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2052800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -5647,50 +5846,53 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>2289900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>1109700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1095400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>979700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>839800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>861100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>969400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,31 +6273,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>3266500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1083700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2830100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>1033500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3139000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1041400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2719700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6091,50 +6308,53 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>3486400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>629500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2665100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>652700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2223600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>526500</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2396300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6381,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1794300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-644300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1669600</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-1192400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1724300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-619200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1604400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6193,50 +6414,53 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-791200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-637800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-560400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-403100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,31 +6610,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-882800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-498800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-6372700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>4147500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-848400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-479400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6124000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -6415,50 +6645,53 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-288300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-476600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-676600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-457400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-957800</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,31 +6718,32 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-184700</v>
       </c>
       <c r="E96" s="3">
-        <v>-554500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-532900</v>
       </c>
       <c r="G96" s="3">
-        <v>-412000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-396000</v>
       </c>
       <c r="I96" s="3">
-        <v>-287600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-276400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6518,49 +6752,52 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-746300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-729800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-49100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-610200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-60600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-590700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,31 +7024,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2381600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1010600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>3653600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-8312500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2288600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-971200</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3511000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -6813,73 +7059,76 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>717700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>671000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-921700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>827700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>65600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>-400800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-25600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -6887,73 +7136,76 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>6900</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-6500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-11300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>3900</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-32100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>17400</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>4830800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-407900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>84400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-3532300</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4642300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>81100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -6961,46 +7213,49 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1355300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-986400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>1978800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>1762000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-886000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>2335900</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20143100</v>
+        <v>20615700</v>
       </c>
       <c r="E8" s="3">
-        <v>9909200</v>
+        <v>10141600</v>
       </c>
       <c r="F8" s="3">
-        <v>14824400</v>
+        <v>15172200</v>
       </c>
       <c r="G8" s="3">
-        <v>6694400</v>
+        <v>6851500</v>
       </c>
       <c r="H8" s="3">
-        <v>13609600</v>
+        <v>13928900</v>
       </c>
       <c r="I8" s="3">
-        <v>6789300</v>
+        <v>6948600</v>
       </c>
       <c r="J8" s="3">
-        <v>13562500</v>
+        <v>13880700</v>
       </c>
       <c r="K8" s="3">
         <v>6531500</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16575800</v>
+        <v>16964700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>12350200</v>
+        <v>12640000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>11202400</v>
+        <v>11465200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>11216800</v>
+        <v>11479900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -932,25 +932,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3567300</v>
+        <v>3651000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>2474200</v>
+        <v>2532200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>2407200</v>
+        <v>2463700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>2345800</v>
+        <v>2400800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -1192,25 +1192,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>312800</v>
+        <v>320100</v>
       </c>
       <c r="E14" s="3">
-        <v>72800</v>
+        <v>74500</v>
       </c>
       <c r="F14" s="3">
-        <v>170700</v>
+        <v>174700</v>
       </c>
       <c r="G14" s="3">
-        <v>77100</v>
+        <v>78900</v>
       </c>
       <c r="H14" s="3">
-        <v>177700</v>
+        <v>181900</v>
       </c>
       <c r="I14" s="3">
-        <v>65000</v>
+        <v>66600</v>
       </c>
       <c r="J14" s="3">
-        <v>284600</v>
+        <v>291200</v>
       </c>
       <c r="K14" s="3">
         <v>127100</v>
@@ -1272,19 +1272,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>732100</v>
+        <v>749300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>814000</v>
+        <v>833100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>526400</v>
+        <v>538800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19021100</v>
+        <v>19467400</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>14304400</v>
+        <v>14640000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>12920000</v>
+        <v>13223100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>13007300</v>
+        <v>13312500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1122000</v>
+        <v>1148300</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>519900</v>
+        <v>532100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>689600</v>
+        <v>705800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>555300</v>
+        <v>568300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-204400</v>
+        <v>-209200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-76700</v>
+        <v>-78500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>82100</v>
+        <v>84000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2157900</v>
+        <v>2208500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2554900</v>
+        <v>2614900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>1828200</v>
+        <v>1871100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>2596900</v>
+        <v>2657900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>286300</v>
+        <v>293000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>161900</v>
+        <v>165700</v>
       </c>
       <c r="G22" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="H22" s="3">
-        <v>154700</v>
+        <v>158300</v>
       </c>
       <c r="I22" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="J22" s="3">
-        <v>172600</v>
+        <v>176600</v>
       </c>
       <c r="K22" s="3">
         <v>7000</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>631400</v>
+        <v>646200</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>281400</v>
+        <v>288000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>617000</v>
+        <v>631500</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="3">
-        <v>371500</v>
+        <v>380200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>233200</v>
+        <v>238700</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>127500</v>
+        <v>130500</v>
       </c>
       <c r="G24" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="H24" s="3">
-        <v>217400</v>
+        <v>222500</v>
       </c>
       <c r="I24" s="3">
-        <v>92600</v>
+        <v>94700</v>
       </c>
       <c r="J24" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="K24" s="3">
         <v>44100</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>398200</v>
+        <v>407500</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>153900</v>
+        <v>157500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>399600</v>
+        <v>408900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="3">
-        <v>289900</v>
+        <v>296700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>5</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>237400</v>
+        <v>243000</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>98900</v>
+        <v>101300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>304300</v>
+        <v>311400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3">
-        <v>236700</v>
+        <v>242200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>5</v>
@@ -2254,19 +2254,19 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>204400</v>
+        <v>209200</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>76700</v>
+        <v>78500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>-82100</v>
+        <v>-84000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="3">
-        <v>103500</v>
+        <v>106000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3">
-        <v>299700</v>
+        <v>306800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>225800</v>
+        <v>231100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>103500</v>
+        <v>106000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>299700</v>
+        <v>306800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="3">
-        <v>225800</v>
+        <v>231100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>5</v>
@@ -2927,22 +2927,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7156200</v>
+        <v>7324100</v>
       </c>
       <c r="E41" s="3">
-        <v>10491400</v>
+        <v>10737500</v>
       </c>
       <c r="F41" s="3">
-        <v>5439700</v>
+        <v>5567300</v>
       </c>
       <c r="G41" s="3">
-        <v>5824800</v>
+        <v>5961500</v>
       </c>
       <c r="H41" s="3">
-        <v>7010600</v>
+        <v>7175100</v>
       </c>
       <c r="I41" s="3">
-        <v>5828100</v>
+        <v>5964800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3004,22 +3004,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2743600</v>
+        <v>2808000</v>
       </c>
       <c r="E42" s="3">
-        <v>1645700</v>
+        <v>1684300</v>
       </c>
       <c r="F42" s="3">
-        <v>1492100</v>
+        <v>1527100</v>
       </c>
       <c r="G42" s="3">
-        <v>1242800</v>
+        <v>1271900</v>
       </c>
       <c r="H42" s="3">
-        <v>1181400</v>
+        <v>1209100</v>
       </c>
       <c r="I42" s="3">
-        <v>822400</v>
+        <v>841600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3081,22 +3081,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13789900</v>
+        <v>14113400</v>
       </c>
       <c r="E43" s="3">
-        <v>9989300</v>
+        <v>10223600</v>
       </c>
       <c r="F43" s="3">
-        <v>9498900</v>
+        <v>9721800</v>
       </c>
       <c r="G43" s="3">
-        <v>9082500</v>
+        <v>9295600</v>
       </c>
       <c r="H43" s="3">
-        <v>9088700</v>
+        <v>9301900</v>
       </c>
       <c r="I43" s="3">
-        <v>9317400</v>
+        <v>9536000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3158,22 +3158,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1436600</v>
+        <v>1470300</v>
       </c>
       <c r="E44" s="3">
-        <v>814200</v>
+        <v>833300</v>
       </c>
       <c r="F44" s="3">
-        <v>782000</v>
+        <v>800300</v>
       </c>
       <c r="G44" s="3">
-        <v>795600</v>
+        <v>814300</v>
       </c>
       <c r="H44" s="3">
-        <v>797900</v>
+        <v>816600</v>
       </c>
       <c r="I44" s="3">
-        <v>789900</v>
+        <v>808500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3235,22 +3235,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1558900</v>
+        <v>1595500</v>
       </c>
       <c r="E45" s="3">
-        <v>442400</v>
+        <v>452800</v>
       </c>
       <c r="F45" s="3">
-        <v>429900</v>
+        <v>440000</v>
       </c>
       <c r="G45" s="3">
-        <v>628800</v>
+        <v>643500</v>
       </c>
       <c r="H45" s="3">
-        <v>237900</v>
+        <v>243500</v>
       </c>
       <c r="I45" s="3">
-        <v>124500</v>
+        <v>127400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3312,22 +3312,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26685200</v>
+        <v>27311300</v>
       </c>
       <c r="E46" s="3">
-        <v>23382900</v>
+        <v>23931500</v>
       </c>
       <c r="F46" s="3">
-        <v>17642600</v>
+        <v>18056500</v>
       </c>
       <c r="G46" s="3">
-        <v>17574500</v>
+        <v>17986800</v>
       </c>
       <c r="H46" s="3">
-        <v>18316600</v>
+        <v>18746300</v>
       </c>
       <c r="I46" s="3">
-        <v>16882300</v>
+        <v>17278400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3389,22 +3389,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3845300</v>
+        <v>3935500</v>
       </c>
       <c r="E47" s="3">
-        <v>6967400</v>
+        <v>7130900</v>
       </c>
       <c r="F47" s="3">
-        <v>7013500</v>
+        <v>7178100</v>
       </c>
       <c r="G47" s="3">
-        <v>6086400</v>
+        <v>6229200</v>
       </c>
       <c r="H47" s="3">
-        <v>3646200</v>
+        <v>3731700</v>
       </c>
       <c r="I47" s="3">
-        <v>3728700</v>
+        <v>3816200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3466,22 +3466,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17950300</v>
+        <v>18371400</v>
       </c>
       <c r="E48" s="3">
-        <v>10237600</v>
+        <v>10477800</v>
       </c>
       <c r="F48" s="3">
-        <v>9857300</v>
+        <v>10088600</v>
       </c>
       <c r="G48" s="3">
-        <v>9720800</v>
+        <v>9948800</v>
       </c>
       <c r="H48" s="3">
-        <v>8971400</v>
+        <v>9181900</v>
       </c>
       <c r="I48" s="3">
-        <v>9320100</v>
+        <v>9538800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3543,22 +3543,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21396200</v>
+        <v>21898200</v>
       </c>
       <c r="E49" s="3">
-        <v>11206600</v>
+        <v>11469500</v>
       </c>
       <c r="F49" s="3">
-        <v>10907400</v>
+        <v>11163300</v>
       </c>
       <c r="G49" s="3">
-        <v>10777000</v>
+        <v>11029800</v>
       </c>
       <c r="H49" s="3">
-        <v>10096600</v>
+        <v>10333500</v>
       </c>
       <c r="I49" s="3">
-        <v>9992000</v>
+        <v>10226400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3774,22 +3774,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2123500</v>
+        <v>2173300</v>
       </c>
       <c r="E52" s="3">
-        <v>1144700</v>
+        <v>1171600</v>
       </c>
       <c r="F52" s="3">
-        <v>1101300</v>
+        <v>1127200</v>
       </c>
       <c r="G52" s="3">
-        <v>1087300</v>
+        <v>1112800</v>
       </c>
       <c r="H52" s="3">
-        <v>1022000</v>
+        <v>1046000</v>
       </c>
       <c r="I52" s="3">
-        <v>989300</v>
+        <v>1012500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3928,22 +3928,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72000500</v>
+        <v>73689700</v>
       </c>
       <c r="E54" s="3">
-        <v>52939300</v>
+        <v>54181300</v>
       </c>
       <c r="F54" s="3">
-        <v>46522100</v>
+        <v>47613600</v>
       </c>
       <c r="G54" s="3">
-        <v>45246000</v>
+        <v>46307500</v>
       </c>
       <c r="H54" s="3">
-        <v>42052800</v>
+        <v>43039400</v>
       </c>
       <c r="I54" s="3">
-        <v>40912400</v>
+        <v>41872200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4063,22 +4063,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17758400</v>
+        <v>18175000</v>
       </c>
       <c r="E57" s="3">
-        <v>13513700</v>
+        <v>13830700</v>
       </c>
       <c r="F57" s="3">
-        <v>11823100</v>
+        <v>12100500</v>
       </c>
       <c r="G57" s="3">
-        <v>11819600</v>
+        <v>12096900</v>
       </c>
       <c r="H57" s="3">
-        <v>10746800</v>
+        <v>10998900</v>
       </c>
       <c r="I57" s="3">
-        <v>11723000</v>
+        <v>11998100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4140,22 +4140,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7659800</v>
+        <v>7839500</v>
       </c>
       <c r="E58" s="3">
-        <v>9252700</v>
+        <v>9469800</v>
       </c>
       <c r="F58" s="3">
-        <v>8542300</v>
+        <v>8742700</v>
       </c>
       <c r="G58" s="3">
-        <v>7796900</v>
+        <v>7979800</v>
       </c>
       <c r="H58" s="3">
-        <v>7747300</v>
+        <v>7929100</v>
       </c>
       <c r="I58" s="3">
-        <v>6195400</v>
+        <v>6340800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4217,22 +4217,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1626900</v>
+        <v>1665000</v>
       </c>
       <c r="E59" s="3">
-        <v>988200</v>
+        <v>1011400</v>
       </c>
       <c r="F59" s="3">
-        <v>960100</v>
+        <v>982600</v>
       </c>
       <c r="G59" s="3">
-        <v>780000</v>
+        <v>798300</v>
       </c>
       <c r="H59" s="3">
-        <v>881200</v>
+        <v>901900</v>
       </c>
       <c r="I59" s="3">
-        <v>881200</v>
+        <v>901900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4294,22 +4294,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27045100</v>
+        <v>27679600</v>
       </c>
       <c r="E60" s="3">
-        <v>23754600</v>
+        <v>24311900</v>
       </c>
       <c r="F60" s="3">
-        <v>21325500</v>
+        <v>21825800</v>
       </c>
       <c r="G60" s="3">
-        <v>20396400</v>
+        <v>20875000</v>
       </c>
       <c r="H60" s="3">
-        <v>19375300</v>
+        <v>19829900</v>
       </c>
       <c r="I60" s="3">
-        <v>18799700</v>
+        <v>19240800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4371,22 +4371,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22920800</v>
+        <v>23458500</v>
       </c>
       <c r="E61" s="3">
-        <v>11730000</v>
+        <v>12005200</v>
       </c>
       <c r="F61" s="3">
-        <v>11588000</v>
+        <v>11859900</v>
       </c>
       <c r="G61" s="3">
-        <v>12101700</v>
+        <v>12385600</v>
       </c>
       <c r="H61" s="3">
-        <v>11963900</v>
+        <v>12244600</v>
       </c>
       <c r="I61" s="3">
-        <v>10756700</v>
+        <v>11009000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4448,22 +4448,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6855600</v>
+        <v>7016500</v>
       </c>
       <c r="E62" s="3">
-        <v>4717900</v>
+        <v>4828600</v>
       </c>
       <c r="F62" s="3">
-        <v>4524700</v>
+        <v>4630900</v>
       </c>
       <c r="G62" s="3">
-        <v>4430800</v>
+        <v>4534800</v>
       </c>
       <c r="H62" s="3">
-        <v>4328600</v>
+        <v>4430200</v>
       </c>
       <c r="I62" s="3">
-        <v>4296000</v>
+        <v>4396800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4756,22 +4756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59789700</v>
+        <v>61192500</v>
       </c>
       <c r="E66" s="3">
-        <v>41451200</v>
+        <v>42423700</v>
       </c>
       <c r="F66" s="3">
-        <v>38592500</v>
+        <v>39497900</v>
       </c>
       <c r="G66" s="3">
-        <v>38025400</v>
+        <v>38917500</v>
       </c>
       <c r="H66" s="3">
-        <v>36773800</v>
+        <v>37636600</v>
       </c>
       <c r="I66" s="3">
-        <v>34994100</v>
+        <v>35815100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5170,22 +5170,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3997800</v>
+        <v>-4091600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3404700</v>
+        <v>-3484600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3701600</v>
+        <v>-3788400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3648800</v>
+        <v>-3734400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3916500</v>
+        <v>-4008400</v>
       </c>
       <c r="I72" s="3">
-        <v>-3499300</v>
+        <v>-3581400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5478,22 +5478,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12210800</v>
+        <v>12497200</v>
       </c>
       <c r="E76" s="3">
-        <v>11488100</v>
+        <v>11757600</v>
       </c>
       <c r="F76" s="3">
-        <v>7929600</v>
+        <v>8115700</v>
       </c>
       <c r="G76" s="3">
-        <v>7220600</v>
+        <v>7390000</v>
       </c>
       <c r="H76" s="3">
-        <v>5278900</v>
+        <v>5402800</v>
       </c>
       <c r="I76" s="3">
-        <v>5918300</v>
+        <v>6057100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>103500</v>
+        <v>106000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3">
-        <v>299700</v>
+        <v>306800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="3">
-        <v>225800</v>
+        <v>231100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>5</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1240300</v>
+        <v>1269400</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>2111700</v>
+        <v>2161200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>1056500</v>
+        <v>1081300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>2052800</v>
+        <v>2101000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1033500</v>
+        <v>1057800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>3139000</v>
+        <v>3212700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>1041400</v>
+        <v>1065800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
-        <v>2719700</v>
+        <v>2783500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1192400</v>
+        <v>-1220400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-1724300</v>
+        <v>-1764800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-619200</v>
+        <v>-633700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-1604400</v>
+        <v>-1642100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4147500</v>
+        <v>4244800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-848400</v>
+        <v>-868300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-479400</v>
+        <v>-490600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
-        <v>-6124000</v>
+        <v>-6267700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -6725,25 +6725,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-184700</v>
+        <v>-189100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-532900</v>
+        <v>-545400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-396000</v>
+        <v>-405300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-276400</v>
+        <v>-282900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8312500</v>
+        <v>-8507600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>2288600</v>
+        <v>2342300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>-971200</v>
+        <v>-994000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
-        <v>3511000</v>
+        <v>3593400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400800</v>
+        <v>-410200</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>63000</v>
+        <v>64500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3532300</v>
+        <v>-3615200</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>4642300</v>
+        <v>4751200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>-392000</v>
+        <v>-401200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
-        <v>81100</v>
+        <v>83000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20615700</v>
+        <v>11127400</v>
       </c>
       <c r="E8" s="3">
-        <v>10141600</v>
+        <v>21366900</v>
       </c>
       <c r="F8" s="3">
-        <v>15172200</v>
+        <v>10511200</v>
       </c>
       <c r="G8" s="3">
-        <v>6851500</v>
+        <v>15725100</v>
       </c>
       <c r="H8" s="3">
-        <v>13928900</v>
+        <v>7101200</v>
       </c>
       <c r="I8" s="3">
-        <v>6948600</v>
+        <v>14436500</v>
       </c>
       <c r="J8" s="3">
+        <v>7201800</v>
+      </c>
+      <c r="K8" s="3">
         <v>13880700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6531500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13540400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7281800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15654700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7889100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15674200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8116200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15807600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6867200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13942400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7068900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14172900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6513000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13673100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7267100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14498800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>16964700</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12640000</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11465200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17582900</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13100600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11883000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11479900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11580300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>13043100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>12935200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>13105100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>11413600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>11652900</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>11155500</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>12109800</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>3651000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2532200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2463700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3784000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2624500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2553500</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2400800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1960000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2611600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2739000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2702500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2528800</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2520000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2517600</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2388900</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>320100</v>
+        <v>234900</v>
       </c>
       <c r="E14" s="3">
-        <v>74500</v>
+        <v>331800</v>
       </c>
       <c r="F14" s="3">
-        <v>174700</v>
+        <v>77200</v>
       </c>
       <c r="G14" s="3">
-        <v>78900</v>
+        <v>181000</v>
       </c>
       <c r="H14" s="3">
-        <v>181900</v>
+        <v>81800</v>
       </c>
       <c r="I14" s="3">
-        <v>66600</v>
+        <v>188500</v>
       </c>
       <c r="J14" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K14" s="3">
         <v>291200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>127100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>137300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>66400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>279300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>85900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>188000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>81300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>263200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>68900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>195900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>75200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>236500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>80700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>247600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>76400</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>749300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>833100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>538800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>776600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>863400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>558400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>690700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>584100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>641500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>617000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>565900</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>548700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>1376200</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>473000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>19467400</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14640000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>13223100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20176800</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15173500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13705000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>13312500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>13265100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>14983000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>14803600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>15036900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>13175700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>13524100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>13015600</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>13922000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1148300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>532100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>705800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>551500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>731500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>568300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>275200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>671700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>870700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>770700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>766700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>648700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>657500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>576800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-209200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-78500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>84000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-216800</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>87100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-75100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>258300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-94900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-50900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-48800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-59900</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-54800</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2208500</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>2614900</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>1871100</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>2657900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>3220000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1976100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1771200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1695400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1426000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1433700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1491400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>293000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>165700</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>303600</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>43900</v>
+        <v>171700</v>
       </c>
       <c r="H22" s="3">
-        <v>158300</v>
+        <v>45500</v>
       </c>
       <c r="I22" s="3">
-        <v>7600</v>
+        <v>164100</v>
       </c>
       <c r="J22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K22" s="3">
         <v>176600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>207900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>211100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>237900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>235900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>182500</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>199800</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>199700</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>210300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>646200</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>288000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>631500</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>669700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>298500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>654500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>380200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>718900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>628600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>439900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>533200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>400100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>397900</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>311600</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>238700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>130500</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>247400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>23500</v>
+        <v>135200</v>
       </c>
       <c r="H24" s="3">
-        <v>222500</v>
+        <v>24300</v>
       </c>
       <c r="I24" s="3">
-        <v>94700</v>
+        <v>230600</v>
       </c>
       <c r="J24" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K24" s="3">
         <v>83500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>225400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>116300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>89100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>137000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>124700</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>119000</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>77100</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>407500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>157500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>408900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>422400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>163200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>423800</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>296700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-68000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>493500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>512200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>350800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>396200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>275400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>278800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>234500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>243000</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>101300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>311400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>251800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>322800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>242200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-140300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>439800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>408600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>177200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>226300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>219000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>130400</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>287900</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2300,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-11100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-9800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-108400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-49400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>4400</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>16400</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-53300</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>209200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>78500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>216800</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>81400</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>11400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>75100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-258300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>94900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>50900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>48800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>59900</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>54800</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>240900</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>106000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>306800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>249700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>109800</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>317900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>231100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-150100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>331400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>389900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>175100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>176900</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>223400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>146800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>234600</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>240900</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>106000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>306800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>249700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>109800</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>317900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>231100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-150100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>331400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>389900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>175100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>176900</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>223400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>146800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>234600</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3007,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7324100</v>
+        <v>7591000</v>
       </c>
       <c r="E41" s="3">
-        <v>10737500</v>
+        <v>11128800</v>
       </c>
       <c r="F41" s="3">
-        <v>5567300</v>
+        <v>5770200</v>
       </c>
       <c r="G41" s="3">
-        <v>5961500</v>
+        <v>6178700</v>
       </c>
       <c r="H41" s="3">
-        <v>7175100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>5964800</v>
+        <v>7436600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2956,70 +3043,73 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>6597700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4512100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5389900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>3244600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>7028000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>5414300</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>6481100</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2808000</v>
+        <v>2910300</v>
       </c>
       <c r="E42" s="3">
-        <v>1684300</v>
+        <v>1745700</v>
       </c>
       <c r="F42" s="3">
-        <v>1527100</v>
+        <v>1582800</v>
       </c>
       <c r="G42" s="3">
-        <v>1271900</v>
+        <v>1318300</v>
       </c>
       <c r="H42" s="3">
-        <v>1209100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>841600</v>
+        <v>1253200</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3033,70 +3123,73 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>930900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>991700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>628700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>803700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>675300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>791700</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>500400</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14113400</v>
+        <v>14627700</v>
       </c>
       <c r="E43" s="3">
-        <v>10223600</v>
+        <v>10596200</v>
       </c>
       <c r="F43" s="3">
-        <v>9721800</v>
+        <v>10076100</v>
       </c>
       <c r="G43" s="3">
-        <v>9295600</v>
+        <v>9634400</v>
       </c>
       <c r="H43" s="3">
-        <v>9301900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>9536000</v>
+        <v>9640900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3110,70 +3203,73 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>10547700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>10842600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>10658000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>10169400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>9525100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>9987800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>10195700</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1470300</v>
+        <v>1523800</v>
       </c>
       <c r="E44" s="3">
-        <v>833300</v>
+        <v>863600</v>
       </c>
       <c r="F44" s="3">
-        <v>800300</v>
+        <v>829500</v>
       </c>
       <c r="G44" s="3">
-        <v>814300</v>
+        <v>844000</v>
       </c>
       <c r="H44" s="3">
-        <v>816600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>808500</v>
+        <v>846400</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3187,70 +3283,73 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>894200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>990100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>967600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>834000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>809600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>771300</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>844700</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1595500</v>
+        <v>1653700</v>
       </c>
       <c r="E45" s="3">
-        <v>452800</v>
+        <v>469300</v>
       </c>
       <c r="F45" s="3">
-        <v>440000</v>
+        <v>456000</v>
       </c>
       <c r="G45" s="3">
-        <v>643500</v>
+        <v>667000</v>
       </c>
       <c r="H45" s="3">
-        <v>243500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>127400</v>
+        <v>252300</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3264,70 +3363,73 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>140900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1057600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>486200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>839600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>625200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>286600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>155200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27311300</v>
+        <v>28306600</v>
       </c>
       <c r="E46" s="3">
-        <v>23931500</v>
+        <v>24803600</v>
       </c>
       <c r="F46" s="3">
-        <v>18056500</v>
+        <v>18714500</v>
       </c>
       <c r="G46" s="3">
-        <v>17986800</v>
+        <v>18642300</v>
       </c>
       <c r="H46" s="3">
-        <v>18746300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>17278400</v>
+        <v>19429400</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3341,70 +3443,73 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>19111500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>18394100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>18130400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>15891300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>18663300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>17251600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>18177000</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3935500</v>
+        <v>4078900</v>
       </c>
       <c r="E47" s="3">
-        <v>7130900</v>
+        <v>7390800</v>
       </c>
       <c r="F47" s="3">
-        <v>7178100</v>
+        <v>7439600</v>
       </c>
       <c r="G47" s="3">
-        <v>6229200</v>
+        <v>6456200</v>
       </c>
       <c r="H47" s="3">
-        <v>3731700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3816200</v>
+        <v>3867700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3418,70 +3523,73 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>4221000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4293700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>4312300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>3978200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>4431700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4581000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>5157400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18371400</v>
+        <v>19040900</v>
       </c>
       <c r="E48" s="3">
-        <v>10477800</v>
+        <v>10859600</v>
       </c>
       <c r="F48" s="3">
-        <v>10088600</v>
+        <v>10456200</v>
       </c>
       <c r="G48" s="3">
-        <v>9948800</v>
+        <v>10311400</v>
       </c>
       <c r="H48" s="3">
-        <v>9181900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9538800</v>
+        <v>9516500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3495,70 +3603,73 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>10550800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10504100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>20596800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>8036000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>16368500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>7829600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>8424700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21898200</v>
+        <v>22696200</v>
       </c>
       <c r="E49" s="3">
-        <v>11469500</v>
+        <v>11887500</v>
       </c>
       <c r="F49" s="3">
-        <v>11163300</v>
+        <v>11570100</v>
       </c>
       <c r="G49" s="3">
-        <v>11029800</v>
+        <v>11431800</v>
       </c>
       <c r="H49" s="3">
-        <v>10333500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>10226400</v>
+        <v>10710000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3572,50 +3683,53 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>11311300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>11282000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>16837300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>10573400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>10555800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>10748100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>11313800</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3885,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2173300</v>
+        <v>2252500</v>
       </c>
       <c r="E52" s="3">
-        <v>1171600</v>
+        <v>1214300</v>
       </c>
       <c r="F52" s="3">
-        <v>1127200</v>
+        <v>1168200</v>
       </c>
       <c r="G52" s="3">
-        <v>1112800</v>
+        <v>1153300</v>
       </c>
       <c r="H52" s="3">
-        <v>1046000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1012500</v>
+        <v>1084100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3803,50 +3923,53 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1120000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1321700</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1271700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1164600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1113200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1394000</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1472300</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73689700</v>
+        <v>76375100</v>
       </c>
       <c r="E54" s="3">
-        <v>54181300</v>
+        <v>56155800</v>
       </c>
       <c r="F54" s="3">
-        <v>47613600</v>
+        <v>49348700</v>
       </c>
       <c r="G54" s="3">
-        <v>46307500</v>
+        <v>47995000</v>
       </c>
       <c r="H54" s="3">
-        <v>43039400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>41872200</v>
+        <v>44607800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3957,50 +4083,53 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>46314600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>45795600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>46481100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>39643400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>42948300</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>41804200</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>44545200</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18175000</v>
+        <v>18837400</v>
       </c>
       <c r="E57" s="3">
-        <v>13830700</v>
+        <v>14334700</v>
       </c>
       <c r="F57" s="3">
-        <v>12100500</v>
+        <v>12541400</v>
       </c>
       <c r="G57" s="3">
-        <v>12096900</v>
+        <v>12537700</v>
       </c>
       <c r="H57" s="3">
-        <v>10998900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>11998100</v>
+        <v>11399700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4092,70 +4223,73 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>13271000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>11976600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>13011200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>11186000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>11352300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>10772200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>11972700</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7839500</v>
+        <v>8125200</v>
       </c>
       <c r="E58" s="3">
-        <v>9469800</v>
+        <v>9814900</v>
       </c>
       <c r="F58" s="3">
-        <v>8742700</v>
+        <v>9061300</v>
       </c>
       <c r="G58" s="3">
-        <v>7979800</v>
+        <v>8270600</v>
       </c>
       <c r="H58" s="3">
-        <v>7929100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6340800</v>
+        <v>8218000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4169,70 +4303,73 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>7013500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5985500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>6191900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5417800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5403400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5262100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5876700</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1665000</v>
+        <v>1725700</v>
       </c>
       <c r="E59" s="3">
-        <v>1011400</v>
+        <v>1048300</v>
       </c>
       <c r="F59" s="3">
-        <v>982600</v>
+        <v>1018400</v>
       </c>
       <c r="G59" s="3">
-        <v>798300</v>
+        <v>827400</v>
       </c>
       <c r="H59" s="3">
-        <v>901900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>901900</v>
+        <v>934700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4246,70 +4383,73 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>997600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1175200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>868100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>991500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>1068400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>875500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>935800</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27679600</v>
+        <v>28688300</v>
       </c>
       <c r="E60" s="3">
-        <v>24311900</v>
+        <v>25197900</v>
       </c>
       <c r="F60" s="3">
-        <v>21825800</v>
+        <v>22621200</v>
       </c>
       <c r="G60" s="3">
-        <v>20875000</v>
+        <v>21635700</v>
       </c>
       <c r="H60" s="3">
-        <v>19829900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>19240800</v>
+        <v>20552500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4323,70 +4463,73 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>21282100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>19137300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>20071300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>17595300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>17824000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>16909800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>18785200</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23458500</v>
+        <v>24313400</v>
       </c>
       <c r="E61" s="3">
-        <v>12005200</v>
+        <v>12442700</v>
       </c>
       <c r="F61" s="3">
-        <v>11859900</v>
+        <v>12292100</v>
       </c>
       <c r="G61" s="3">
-        <v>12385600</v>
+        <v>12836900</v>
       </c>
       <c r="H61" s="3">
-        <v>12244600</v>
+        <v>12690800</v>
       </c>
       <c r="I61" s="3">
-        <v>11009000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4401,69 +4544,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>12177000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>13789800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>13099000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9974300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>10611100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>10132200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>9794300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7016500</v>
+        <v>7272200</v>
       </c>
       <c r="E62" s="3">
-        <v>4828600</v>
+        <v>5004600</v>
       </c>
       <c r="F62" s="3">
-        <v>4630900</v>
+        <v>4799600</v>
       </c>
       <c r="G62" s="3">
-        <v>4534800</v>
+        <v>4700100</v>
       </c>
       <c r="H62" s="3">
-        <v>4430200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4396800</v>
+        <v>4591600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4477,50 +4623,53 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4863300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4874200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>5005400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>4637600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>4826000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5316800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>5546400</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4905,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61192500</v>
+        <v>63422400</v>
       </c>
       <c r="E66" s="3">
-        <v>42423700</v>
+        <v>43969700</v>
       </c>
       <c r="F66" s="3">
-        <v>39497900</v>
+        <v>40937300</v>
       </c>
       <c r="G66" s="3">
-        <v>38917500</v>
+        <v>40335700</v>
       </c>
       <c r="H66" s="3">
-        <v>37636600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>35815100</v>
+        <v>39008100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4785,50 +4943,53 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>39614800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>39180900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>39538000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>33427000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>34555600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>33611000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>35449100</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4091600</v>
+        <v>-4240700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3484600</v>
+        <v>-3611600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3788400</v>
+        <v>-3926400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3734400</v>
+        <v>-3870500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4008400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-3581400</v>
+        <v>-4154400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5199,50 +5373,53 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,28 +5655,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12497200</v>
+        <v>12952700</v>
       </c>
       <c r="E76" s="3">
-        <v>11757600</v>
+        <v>12186000</v>
       </c>
       <c r="F76" s="3">
-        <v>8115700</v>
+        <v>8411400</v>
       </c>
       <c r="G76" s="3">
-        <v>7390000</v>
+        <v>7659300</v>
       </c>
       <c r="H76" s="3">
-        <v>5402800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6057100</v>
+        <v>5599700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5507,50 +5693,53 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>6699700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>6614700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>6943100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>6216400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>8392700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>8193200</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>9096100</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>240900</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>106000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>306800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>249700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>109800</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>317900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>231100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-150100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>331400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>389900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>175100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>176900</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>223400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>146800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>234600</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1269400</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>2161200</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>1081300</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>2101000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>2289900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1109700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1095400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>979700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>839800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>861100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>969400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1057800</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>3212700</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>1065800</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>2783500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>3486400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>629500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>2665100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>652700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>2223600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>526500</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>2396300</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1220400</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1764800</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-633700</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1642100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-791200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-637800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-560400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-403100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>4244800</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-868300</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-490600</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6267700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-288300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-476600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-676600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-457400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-957800</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-189100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-545400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-405300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-282900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6755,49 +6989,52 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-746300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-729800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-49100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-610200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-60600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-590700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-24200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-8507600</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>2342300</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-994000</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>3593400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>717700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>671000</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-921700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>827700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-410200</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>64500</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>17600</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>6900</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-6500</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-11300</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>3900</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-32100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>17400</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-3615200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>4751200</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-401200</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>83000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>1355300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-986400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>1978800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>1762000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-886000</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>2335900</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,213 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11127400</v>
+        <v>12930300</v>
       </c>
       <c r="E8" s="3">
-        <v>21366900</v>
+        <v>24434500</v>
       </c>
       <c r="F8" s="3">
-        <v>10511200</v>
+        <v>11326200</v>
       </c>
       <c r="G8" s="3">
-        <v>15725100</v>
+        <v>21748600</v>
       </c>
       <c r="H8" s="3">
-        <v>7101200</v>
+        <v>10699000</v>
       </c>
       <c r="I8" s="3">
+        <v>16006000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7228000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14436500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7201800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13880700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6531500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13540400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7281800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15654700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7889100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>15674200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8116200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>15807600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6867200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13942400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7068900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14172900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6513000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>13673100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7267100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>14498800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,79 +879,85 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>17582900</v>
+        <v>20264900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>13100600</v>
+        <v>17897000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>13334600</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11883000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11479900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11580300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>13043100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>12935200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>13105100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>11413600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>11652900</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>11155500</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>12109800</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,79 +965,85 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>3784000</v>
+        <v>4169600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2624500</v>
+        <v>3851600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>2671400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2553500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2400800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1960000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2611600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2739000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2702500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2528800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2520000</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2517600</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2388900</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1240,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>234900</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>331800</v>
+        <v>280400</v>
       </c>
       <c r="F14" s="3">
-        <v>77200</v>
+        <v>239100</v>
       </c>
       <c r="G14" s="3">
-        <v>181000</v>
+        <v>337700</v>
       </c>
       <c r="H14" s="3">
-        <v>81800</v>
+        <v>78600</v>
       </c>
       <c r="I14" s="3">
+        <v>184300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K14" s="3">
         <v>188500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>69000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>291200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>127100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>137300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>66400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>279300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>85900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>188000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>81300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>263200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>68900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>195900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>75200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>236500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>80700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>247600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>76400</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,77 +1343,83 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>776600</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>863400</v>
+        <v>790400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>878900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>558400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>690700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>584100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>641500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>617000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>565900</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>548700</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>1376200</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>473000</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,79 +1456,85 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>20176800</v>
+        <v>23270000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>15173500</v>
+        <v>20537200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>15444600</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>13705000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>13312500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>13265100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>14983000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>14803600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>15036900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>13175700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>13524100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>13015600</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>13922000</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1542,85 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>1190100</v>
+        <v>1164600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>551500</v>
+        <v>1211400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>561400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>731500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>568300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>275200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>671700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>870700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>770700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>766700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>648700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>657500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>576800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,159 +1660,171 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-216800</v>
+        <v>37600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-81400</v>
+        <v>-220700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>87100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-11400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-75100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>258300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-94900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-50900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-48800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-59900</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-54800</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>4625200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>2329900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>2758600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>2657900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3220000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1976100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1771200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1695400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1426000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1433700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>1491400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,79 +1832,85 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>303600</v>
+        <v>272800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>171700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45500</v>
+        <v>309100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
+        <v>174800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K22" s="3">
         <v>164100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>176600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>207900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>211100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>237900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>235900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>182500</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>199800</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>199700</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>210300</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,79 +1918,85 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>669700</v>
+        <v>929400</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>298500</v>
+        <v>681700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>303800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>654500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>380200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>718900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>628600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>439900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>533200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>397900</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>311600</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +2004,85 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>247400</v>
+        <v>200300</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>135200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>24300</v>
+        <v>251800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>137600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K24" s="3">
         <v>230600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>98200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>83500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>44100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>60200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>67500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>225400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>116300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>89100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>137000</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>124700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>119000</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>77100</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2161,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,79 +2176,85 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>422400</v>
+        <v>729100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>163200</v>
+        <v>429900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3">
+        <v>166200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>423800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>296700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-68000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>493500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>512200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>350800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>396200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>275400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>278800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>234500</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,79 +2262,85 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>251800</v>
+        <v>599200</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>105000</v>
+        <v>256300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>322800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>242200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-140300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>439800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>408600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>177200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>226300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>219000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>130400</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>287900</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2312,79 +2434,85 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-108400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-49400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>4400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>16400</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-53300</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,79 +2692,85 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>216800</v>
+        <v>-37600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>81400</v>
+        <v>220700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-87100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>11400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>75100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-258300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>94900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>50900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>48800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>59900</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>54800</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,79 +2778,85 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>249700</v>
+        <v>516700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>109800</v>
+        <v>254100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>317900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>231100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-150100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>331400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>389900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>175100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>176900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>223400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>146800</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>234600</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2935,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,164 +2950,176 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>249700</v>
+        <v>516700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>109800</v>
+        <v>254100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>317900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>231100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-150100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>331400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>389900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>175100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>176900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>223400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>146800</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>234600</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,25 +3180,27 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7591000</v>
+        <v>9705200</v>
       </c>
       <c r="E41" s="3">
-        <v>11128800</v>
+        <v>7726600</v>
       </c>
       <c r="F41" s="3">
-        <v>5770200</v>
+        <v>11327600</v>
       </c>
       <c r="G41" s="3">
-        <v>6178700</v>
+        <v>5873300</v>
       </c>
       <c r="H41" s="3">
-        <v>7436600</v>
+        <v>6289100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
@@ -3046,67 +3220,73 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6597700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4512100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>5389900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>3244600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>7028000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>5414300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>6481100</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2910300</v>
+        <v>2580600</v>
       </c>
       <c r="E42" s="3">
-        <v>1745700</v>
+        <v>2962300</v>
       </c>
       <c r="F42" s="3">
-        <v>1582800</v>
+        <v>1776900</v>
       </c>
       <c r="G42" s="3">
-        <v>1318300</v>
+        <v>1611000</v>
       </c>
       <c r="H42" s="3">
-        <v>1253200</v>
+        <v>1341800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -3126,67 +3306,73 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>930900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>991700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>628700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>803700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>675300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>791700</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>500400</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14627700</v>
+        <v>15651100</v>
       </c>
       <c r="E43" s="3">
-        <v>10596200</v>
+        <v>14889000</v>
       </c>
       <c r="F43" s="3">
-        <v>10076100</v>
+        <v>10785500</v>
       </c>
       <c r="G43" s="3">
-        <v>9634400</v>
+        <v>10256100</v>
       </c>
       <c r="H43" s="3">
-        <v>9640900</v>
+        <v>9806500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -3206,67 +3392,73 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>10547700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>10842600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>10658000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>10169400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>9525100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>9987800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>10195700</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1523800</v>
+        <v>1600500</v>
       </c>
       <c r="E44" s="3">
-        <v>863600</v>
+        <v>1551100</v>
       </c>
       <c r="F44" s="3">
-        <v>829500</v>
+        <v>879100</v>
       </c>
       <c r="G44" s="3">
-        <v>844000</v>
+        <v>844300</v>
       </c>
       <c r="H44" s="3">
-        <v>846400</v>
+        <v>859000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
@@ -3286,67 +3478,73 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>894200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>990100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>967600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>834000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>809600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>771300</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>844700</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1653700</v>
+        <v>1384200</v>
       </c>
       <c r="E45" s="3">
-        <v>469300</v>
+        <v>1683200</v>
       </c>
       <c r="F45" s="3">
-        <v>456000</v>
+        <v>477700</v>
       </c>
       <c r="G45" s="3">
-        <v>667000</v>
+        <v>464100</v>
       </c>
       <c r="H45" s="3">
-        <v>252300</v>
+        <v>678900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -3366,67 +3564,73 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>140900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1057600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>486200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>839600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>625200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>286600</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>155200</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28306600</v>
+        <v>30921700</v>
       </c>
       <c r="E46" s="3">
-        <v>24803600</v>
+        <v>28812200</v>
       </c>
       <c r="F46" s="3">
-        <v>18714500</v>
+        <v>25246700</v>
       </c>
       <c r="G46" s="3">
-        <v>18642300</v>
+        <v>19048900</v>
       </c>
       <c r="H46" s="3">
-        <v>19429400</v>
+        <v>18975300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
@@ -3446,67 +3650,73 @@
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>19111500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>18394100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>18130400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>15891300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>18663300</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>17251600</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>18177000</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4078900</v>
+        <v>4064500</v>
       </c>
       <c r="E47" s="3">
-        <v>7390800</v>
+        <v>4151800</v>
       </c>
       <c r="F47" s="3">
-        <v>7439600</v>
+        <v>7522800</v>
       </c>
       <c r="G47" s="3">
-        <v>6456200</v>
+        <v>7572500</v>
       </c>
       <c r="H47" s="3">
-        <v>3867700</v>
+        <v>6571600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3526,67 +3736,73 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4221000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>4293700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>4312300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>3978200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4431700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4581000</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>5157400</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19040900</v>
+        <v>19993800</v>
       </c>
       <c r="E48" s="3">
-        <v>10859600</v>
+        <v>19381100</v>
       </c>
       <c r="F48" s="3">
-        <v>10456200</v>
+        <v>11053600</v>
       </c>
       <c r="G48" s="3">
-        <v>10311400</v>
+        <v>10643000</v>
       </c>
       <c r="H48" s="3">
-        <v>9516500</v>
+        <v>10495600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -3606,67 +3822,73 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10550800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>10504100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>20596800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>8036000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>16368500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>7829600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>8424700</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22696200</v>
+        <v>21615000</v>
       </c>
       <c r="E49" s="3">
-        <v>11887500</v>
+        <v>23101700</v>
       </c>
       <c r="F49" s="3">
-        <v>11570100</v>
+        <v>12099800</v>
       </c>
       <c r="G49" s="3">
-        <v>11431800</v>
+        <v>11776800</v>
       </c>
       <c r="H49" s="3">
-        <v>10710000</v>
+        <v>11636000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -3686,50 +3908,56 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>11311300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>11282000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>16837300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>10573400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>10555800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>10748100</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>11313800</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,25 +4122,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2252500</v>
+        <v>2346100</v>
       </c>
       <c r="E52" s="3">
-        <v>1214300</v>
+        <v>2292700</v>
       </c>
       <c r="F52" s="3">
-        <v>1168200</v>
+        <v>1236000</v>
       </c>
       <c r="G52" s="3">
-        <v>1153300</v>
+        <v>1189100</v>
       </c>
       <c r="H52" s="3">
-        <v>1084100</v>
+        <v>1173900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -3926,50 +4166,56 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1120000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1321700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1271700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1164600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1113200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1394000</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1472300</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,25 +4294,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76375100</v>
+        <v>78941200</v>
       </c>
       <c r="E54" s="3">
-        <v>56155800</v>
+        <v>77739500</v>
       </c>
       <c r="F54" s="3">
-        <v>49348700</v>
+        <v>57158900</v>
       </c>
       <c r="G54" s="3">
-        <v>47995000</v>
+        <v>50230300</v>
       </c>
       <c r="H54" s="3">
-        <v>44607800</v>
+        <v>48852400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
@@ -4086,50 +4338,56 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>46314600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>45795600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>46481100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>39643400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>42948300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>41804200</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>44545200</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,25 +4448,27 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18837400</v>
+        <v>20972800</v>
       </c>
       <c r="E57" s="3">
-        <v>14334700</v>
+        <v>19173900</v>
       </c>
       <c r="F57" s="3">
-        <v>12541400</v>
+        <v>14590800</v>
       </c>
       <c r="G57" s="3">
-        <v>12537700</v>
+        <v>12765500</v>
       </c>
       <c r="H57" s="3">
-        <v>11399700</v>
+        <v>12761700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -4226,67 +4488,73 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>13271000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>11976600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>13011200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>11186000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>11352300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>10772200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>11972700</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8125200</v>
+        <v>7787600</v>
       </c>
       <c r="E58" s="3">
-        <v>9814900</v>
+        <v>8270400</v>
       </c>
       <c r="F58" s="3">
-        <v>9061300</v>
+        <v>9990200</v>
       </c>
       <c r="G58" s="3">
-        <v>8270600</v>
+        <v>9223200</v>
       </c>
       <c r="H58" s="3">
-        <v>8218000</v>
+        <v>8418300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -4306,67 +4574,73 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7013500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5985500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>6191900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5417800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5403400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5262100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>5876700</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1725700</v>
+        <v>2689000</v>
       </c>
       <c r="E59" s="3">
-        <v>1048300</v>
+        <v>1756500</v>
       </c>
       <c r="F59" s="3">
-        <v>1018400</v>
+        <v>1067000</v>
       </c>
       <c r="G59" s="3">
-        <v>827400</v>
+        <v>1036600</v>
       </c>
       <c r="H59" s="3">
-        <v>934700</v>
+        <v>842100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
@@ -4386,67 +4660,73 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>997600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>1175200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>868100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>991500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1068400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>875500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>935800</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28688300</v>
+        <v>31449500</v>
       </c>
       <c r="E60" s="3">
-        <v>25197900</v>
+        <v>29200800</v>
       </c>
       <c r="F60" s="3">
-        <v>22621200</v>
+        <v>25648000</v>
       </c>
       <c r="G60" s="3">
-        <v>21635700</v>
+        <v>23025300</v>
       </c>
       <c r="H60" s="3">
-        <v>20552500</v>
+        <v>22022200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
@@ -4466,67 +4746,73 @@
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>21282100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>19137300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>20071300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>17595300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>17824000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>16909800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>18785200</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24313400</v>
+        <v>22990000</v>
       </c>
       <c r="E61" s="3">
-        <v>12442700</v>
+        <v>24747700</v>
       </c>
       <c r="F61" s="3">
-        <v>12292100</v>
+        <v>12665000</v>
       </c>
       <c r="G61" s="3">
-        <v>12836900</v>
+        <v>12511600</v>
       </c>
       <c r="H61" s="3">
-        <v>12690800</v>
+        <v>13066200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4547,66 +4833,72 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>12177000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>13789800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>13099000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>9974300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>10611100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>10132200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>9794300</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7272200</v>
+        <v>8491600</v>
       </c>
       <c r="E62" s="3">
-        <v>5004600</v>
+        <v>7402100</v>
       </c>
       <c r="F62" s="3">
-        <v>4799600</v>
+        <v>5094000</v>
       </c>
       <c r="G62" s="3">
-        <v>4700100</v>
+        <v>4885400</v>
       </c>
       <c r="H62" s="3">
-        <v>4591600</v>
+        <v>4784000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4626,50 +4918,56 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4863300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>4874200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>5005400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>4637600</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>4826000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>5316800</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>5546400</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,25 +5218,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63422400</v>
+        <v>65744100</v>
       </c>
       <c r="E66" s="3">
-        <v>43969700</v>
+        <v>64555400</v>
       </c>
       <c r="F66" s="3">
-        <v>40937300</v>
+        <v>44755200</v>
       </c>
       <c r="G66" s="3">
-        <v>40335700</v>
+        <v>41668600</v>
       </c>
       <c r="H66" s="3">
-        <v>39008100</v>
+        <v>41056300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
@@ -4946,50 +5262,56 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>39614800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>39180900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>39538000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>33427000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>34555600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>33611000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>35449100</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,25 +5680,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4240700</v>
+        <v>-4396700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3611600</v>
+        <v>-4316400</v>
       </c>
       <c r="F72" s="3">
-        <v>-3926400</v>
+        <v>-3676100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3870500</v>
+        <v>-3996600</v>
       </c>
       <c r="H72" s="3">
-        <v>-4154400</v>
+        <v>-3939600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -5376,50 +5724,56 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,25 +6024,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12952700</v>
+        <v>13197100</v>
       </c>
       <c r="E76" s="3">
-        <v>12186000</v>
+        <v>13184100</v>
       </c>
       <c r="F76" s="3">
-        <v>8411400</v>
+        <v>12403700</v>
       </c>
       <c r="G76" s="3">
-        <v>7659300</v>
+        <v>8561700</v>
       </c>
       <c r="H76" s="3">
-        <v>5599700</v>
+        <v>7796100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
@@ -5696,50 +6068,56 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>6699700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>6614700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>6943100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>6216400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>8392700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>8193200</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>9096100</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6196,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,79 +6302,85 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>249700</v>
+        <v>516700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="3">
-        <v>109800</v>
+        <v>254100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>317900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>231100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-150100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>331400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>389900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>175100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>176900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>223400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>146800</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>234600</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>3423000</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>1339100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>2280000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>2101000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2289900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1109700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1095400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>979700</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>839800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>861100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>969400</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="E89" s="3">
+        <v>4439600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+      <c r="G89" s="3">
+        <v>1115900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>3389200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>2783500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3486400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>629500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2665100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>652700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2223600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>526500</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>2396300</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1588100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1195500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1108000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-620800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1004500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-604100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1642100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-791200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-637800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-560400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-403100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>4871400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>4478100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>-916000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6267700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-288300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-476600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-676600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-457400</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-957800</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,79 +7430,85 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1066300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-199400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-575400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-282900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-746300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-729800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-49100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-610200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-60600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-590700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-24200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7759,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>-10952100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>-8975100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>2471100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>3593400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>717700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>671000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-921700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>827700</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
+      <c r="E101" s="3">
+        <v>49200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>-432700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+      <c r="I101" s="3">
+        <v>68100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-26200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>6900</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-6500</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-11300</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-32100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>17400</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>-1591900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+      <c r="G102" s="3">
+        <v>-3813800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>5012300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>83000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1355300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-986400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>1978800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>1762000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-886000</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>2335900</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12930300</v>
+        <v>24669000</v>
       </c>
       <c r="E8" s="3">
-        <v>24434500</v>
+        <v>13016800</v>
       </c>
       <c r="F8" s="3">
-        <v>11326200</v>
+        <v>24597900</v>
       </c>
       <c r="G8" s="3">
-        <v>21748600</v>
+        <v>11401900</v>
       </c>
       <c r="H8" s="3">
-        <v>10699000</v>
+        <v>21894000</v>
       </c>
       <c r="I8" s="3">
-        <v>16006000</v>
+        <v>10770500</v>
       </c>
       <c r="J8" s="3">
+        <v>16113000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7228000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14436500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7201800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13880700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6531500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13540400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7281800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15654700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7889100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15674200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8116200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15807600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6867200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13942400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7068900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14172900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6513000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13673100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7267100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>14498800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20264900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>17897000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>13334600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>20533200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20400400</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>18016700</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>13423800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11883000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11479900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11580300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>13043100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>12935200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>13105100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>11413600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>11652900</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>11155500</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>12109800</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4169600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3851600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2671400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>4135800</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4197500</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3877400</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2689200</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2553500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2400800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1960000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2611600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2739000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2702500</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2528800</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2520000</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2517600</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>2388900</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,94 +1263,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>280400</v>
+      <c r="D14" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>239100</v>
+        <v>282300</v>
       </c>
       <c r="G14" s="3">
-        <v>337700</v>
+        <v>240700</v>
       </c>
       <c r="H14" s="3">
-        <v>78600</v>
+        <v>340000</v>
       </c>
       <c r="I14" s="3">
-        <v>184300</v>
+        <v>79100</v>
       </c>
       <c r="J14" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K14" s="3">
         <v>83200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>188500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>69000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>291200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>127100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>137300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>66400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>279300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>85900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>188000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>81300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>263200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>68900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>195900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>75200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>236500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>80700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>247600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>76400</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,77 +1372,80 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>790400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>795700</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>878900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>558400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>690700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>584100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>641500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>617000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>565900</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>548700</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>1376200</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
         <v>473000</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>23270000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20537200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>15444600</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>23151500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>23425600</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20674500</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15547800</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>13705000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>13312500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>13265100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>14983000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>14803600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>15036900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>13175700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>13524100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>13015600</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>13922000</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1164600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1211400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>561400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>1517500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1219500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>565100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>731500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>568300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>275200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>671700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>870700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>770700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>766700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>648700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>657500</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>576800</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,117 +1684,121 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>37600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-220700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-82800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-222100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>87100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-11400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-75100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>258300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-94900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-50900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-48800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-59900</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-54800</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4625200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2329900</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2758600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>3032800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4656100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2345500</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2777000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1769,320 +1806,332 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>2657900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>3220000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1976100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1771200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1695400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1426000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1433700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>1491400</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>272800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>309100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>174800</v>
+      <c r="D22" s="3">
+        <v>352800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>274600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>311100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K22" s="3">
         <v>46300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>164100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>176600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>207900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>211100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>237900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>235900</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>182500</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>199800</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>199700</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
         <v>210300</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>929400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>681700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>303800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1133300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>935600</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>686200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>305800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>654500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>380200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>718900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>628600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>439900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>533200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>400100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>397900</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>311600</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>251800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>137600</v>
+      <c r="D24" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>201600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>253500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K24" s="3">
         <v>24800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>230600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>83500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>225400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>116300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>89100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>137000</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>124700</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>119000</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>77100</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>729100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>429900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>166200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>812400</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>733900</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>432800</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>423800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>296700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>-68000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>493500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>512200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>350800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>396200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>275400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>278800</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>234500</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>599200</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>256300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>106800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>574600</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>603200</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>258000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>322800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>242200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>-140300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>439800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>408600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>177200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>226300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>219000</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>130400</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>287900</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,94 +2483,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-82500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D29" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-4900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-11100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-9800</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-108400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-18700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2100</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-49400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>4400</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
         <v>16400</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-53300</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>220700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>82800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>222100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-87100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>11400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>75100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-258300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>94900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>50900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>48800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>59900</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>54800</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>516700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>254100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>111800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>566900</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>520200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>255800</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>317900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>231100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>-150100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>331400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>389900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>175100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>176900</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>223400</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>146800</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>234600</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>516700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>254100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>111800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>566900</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>520200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>255800</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>317900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>231100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>-150100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>331400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>389900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>175100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>176900</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>223400</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>146800</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>234600</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,28 +3268,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9705200</v>
+        <v>8564000</v>
       </c>
       <c r="E41" s="3">
-        <v>7726600</v>
+        <v>9770100</v>
       </c>
       <c r="F41" s="3">
-        <v>11327600</v>
+        <v>7778300</v>
       </c>
       <c r="G41" s="3">
-        <v>5873300</v>
+        <v>11403300</v>
       </c>
       <c r="H41" s="3">
-        <v>6289100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>5912600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6331100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3226,70 +3313,73 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>6597700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4512100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>5389900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>3244600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>7028000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>5414300</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>6481100</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2580600</v>
+        <v>2826500</v>
       </c>
       <c r="E42" s="3">
-        <v>2962300</v>
+        <v>2597800</v>
       </c>
       <c r="F42" s="3">
-        <v>1776900</v>
+        <v>2982100</v>
       </c>
       <c r="G42" s="3">
-        <v>1611000</v>
+        <v>1788800</v>
       </c>
       <c r="H42" s="3">
-        <v>1341800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>1621800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1350800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3312,70 +3402,73 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>930900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>991700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>628700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>803700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>675300</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>791700</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>500400</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15651100</v>
+        <v>15569500</v>
       </c>
       <c r="E43" s="3">
-        <v>14889000</v>
+        <v>15755800</v>
       </c>
       <c r="F43" s="3">
-        <v>10785500</v>
+        <v>14988500</v>
       </c>
       <c r="G43" s="3">
-        <v>10256100</v>
+        <v>10857600</v>
       </c>
       <c r="H43" s="3">
-        <v>9806500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>10324600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9872000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3398,70 +3491,73 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>10547700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>10842600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>10658000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>10169400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>9525100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>9987800</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>10195700</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600500</v>
+        <v>1701600</v>
       </c>
       <c r="E44" s="3">
-        <v>1551100</v>
+        <v>1611200</v>
       </c>
       <c r="F44" s="3">
-        <v>879100</v>
+        <v>1561400</v>
       </c>
       <c r="G44" s="3">
-        <v>844300</v>
+        <v>885000</v>
       </c>
       <c r="H44" s="3">
-        <v>859000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>849900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>864800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3484,70 +3580,73 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>894200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>990100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>967600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>834000</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>809600</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>771300</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>844700</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1384200</v>
+        <v>337900</v>
       </c>
       <c r="E45" s="3">
-        <v>1683200</v>
+        <v>1393500</v>
       </c>
       <c r="F45" s="3">
-        <v>477700</v>
+        <v>1694400</v>
       </c>
       <c r="G45" s="3">
-        <v>464100</v>
+        <v>480900</v>
       </c>
       <c r="H45" s="3">
-        <v>678900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>467200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>683400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3570,70 +3669,73 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>140900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1057600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>486200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>839600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>625200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>286600</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
         <v>155200</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30921700</v>
+        <v>28999500</v>
       </c>
       <c r="E46" s="3">
-        <v>28812200</v>
+        <v>31128400</v>
       </c>
       <c r="F46" s="3">
-        <v>25246700</v>
+        <v>29004900</v>
       </c>
       <c r="G46" s="3">
-        <v>19048900</v>
+        <v>25415500</v>
       </c>
       <c r="H46" s="3">
-        <v>18975300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>19176200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>19102200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3656,70 +3758,73 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>19111500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>18394100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>18130400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>15891300</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>18663300</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>17251600</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>18177000</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4064500</v>
+        <v>3689800</v>
       </c>
       <c r="E47" s="3">
-        <v>4151800</v>
+        <v>4091700</v>
       </c>
       <c r="F47" s="3">
-        <v>7522800</v>
+        <v>4179500</v>
       </c>
       <c r="G47" s="3">
-        <v>7572500</v>
+        <v>7573100</v>
       </c>
       <c r="H47" s="3">
-        <v>6571600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>7623200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6615500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3742,70 +3847,73 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>4221000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>4293700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>4312300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>3978200</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4431700</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>4581000</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>5157400</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19993800</v>
+        <v>20480900</v>
       </c>
       <c r="E48" s="3">
-        <v>19381100</v>
+        <v>20127500</v>
       </c>
       <c r="F48" s="3">
-        <v>11053600</v>
+        <v>19510700</v>
       </c>
       <c r="G48" s="3">
-        <v>10643000</v>
+        <v>11127500</v>
       </c>
       <c r="H48" s="3">
-        <v>10495600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>10714200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10565700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3828,70 +3936,73 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>10550800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>10504100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>20596800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>8036000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>16368500</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>7829600</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>8424700</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21615000</v>
+        <v>21842200</v>
       </c>
       <c r="E49" s="3">
-        <v>23101700</v>
+        <v>21759500</v>
       </c>
       <c r="F49" s="3">
-        <v>12099800</v>
+        <v>23256100</v>
       </c>
       <c r="G49" s="3">
-        <v>11776800</v>
+        <v>12180700</v>
       </c>
       <c r="H49" s="3">
-        <v>11636000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>11855500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>11713800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3914,50 +4025,53 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>11311300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>11282000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>16837300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>10573400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>10555800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>10748100</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>11313800</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,28 +4245,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2346100</v>
+        <v>2340000</v>
       </c>
       <c r="E52" s="3">
-        <v>2292700</v>
+        <v>2361800</v>
       </c>
       <c r="F52" s="3">
-        <v>1236000</v>
+        <v>2308000</v>
       </c>
       <c r="G52" s="3">
-        <v>1189100</v>
+        <v>1244200</v>
       </c>
       <c r="H52" s="3">
-        <v>1173900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>1197100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1181800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4172,50 +4292,53 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1120000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1321700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1271700</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1164600</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1113200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1394000</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1472300</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,28 +4423,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78941200</v>
+        <v>77352500</v>
       </c>
       <c r="E54" s="3">
-        <v>77739500</v>
+        <v>79469000</v>
       </c>
       <c r="F54" s="3">
-        <v>57158900</v>
+        <v>78259200</v>
       </c>
       <c r="G54" s="3">
-        <v>50230300</v>
+        <v>57541100</v>
       </c>
       <c r="H54" s="3">
-        <v>48852400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>50566100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>49179000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4344,50 +4470,53 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>46314600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>45795600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>46481100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>39643400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>42948300</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>41804200</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>44545200</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,28 +4580,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20972800</v>
+        <v>20426500</v>
       </c>
       <c r="E57" s="3">
-        <v>19173900</v>
+        <v>21113100</v>
       </c>
       <c r="F57" s="3">
-        <v>14590800</v>
+        <v>19302100</v>
       </c>
       <c r="G57" s="3">
-        <v>12765500</v>
+        <v>14688400</v>
       </c>
       <c r="H57" s="3">
-        <v>12761700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>12850800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>12847000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4494,70 +4625,73 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>13271000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>11976600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>13011200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>11186000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>11352300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>10772200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>11972700</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7787600</v>
+        <v>8690400</v>
       </c>
       <c r="E58" s="3">
-        <v>8270400</v>
+        <v>7839700</v>
       </c>
       <c r="F58" s="3">
-        <v>9990200</v>
+        <v>8325700</v>
       </c>
       <c r="G58" s="3">
-        <v>9223200</v>
+        <v>10057000</v>
       </c>
       <c r="H58" s="3">
-        <v>8418300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>9284900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8474600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4580,70 +4714,73 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>7013500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5985500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>6191900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>5417800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5403400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>5262100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>5876700</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2689000</v>
+        <v>1822300</v>
       </c>
       <c r="E59" s="3">
-        <v>1756500</v>
+        <v>2707000</v>
       </c>
       <c r="F59" s="3">
-        <v>1067000</v>
+        <v>1768300</v>
       </c>
       <c r="G59" s="3">
-        <v>1036600</v>
+        <v>1074100</v>
       </c>
       <c r="H59" s="3">
-        <v>842100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>1043600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>847800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4666,70 +4803,73 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>997600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>1175200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>868100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>991500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1068400</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>875500</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>935800</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31449500</v>
+        <v>30939100</v>
       </c>
       <c r="E60" s="3">
-        <v>29200800</v>
+        <v>31659700</v>
       </c>
       <c r="F60" s="3">
-        <v>25648000</v>
+        <v>29396000</v>
       </c>
       <c r="G60" s="3">
-        <v>23025300</v>
+        <v>25819500</v>
       </c>
       <c r="H60" s="3">
-        <v>22022200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>23179300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>22169400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4752,70 +4892,73 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>21282100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>19137300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>20071300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>17595300</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>17824000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>16909800</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>18785200</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22990000</v>
+        <v>22555400</v>
       </c>
       <c r="E61" s="3">
-        <v>24747700</v>
+        <v>23143700</v>
       </c>
       <c r="F61" s="3">
-        <v>12665000</v>
+        <v>24913200</v>
       </c>
       <c r="G61" s="3">
-        <v>12511600</v>
+        <v>12749700</v>
       </c>
       <c r="H61" s="3">
-        <v>13066200</v>
+        <v>12595300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13153600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4839,69 +4982,72 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>12177000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>13789800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>13099000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>9974300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>10611100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>10132200</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>9794300</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8491600</v>
+        <v>8366900</v>
       </c>
       <c r="E62" s="3">
-        <v>7402100</v>
+        <v>8548300</v>
       </c>
       <c r="F62" s="3">
-        <v>5094000</v>
+        <v>7451600</v>
       </c>
       <c r="G62" s="3">
-        <v>4885400</v>
+        <v>5128000</v>
       </c>
       <c r="H62" s="3">
-        <v>4784000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>4918000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4816000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4924,50 +5070,53 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>4863300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>4874200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>5005400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>4637600</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>4826000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>5316800</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>5546400</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,28 +5379,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65744100</v>
+        <v>64774800</v>
       </c>
       <c r="E66" s="3">
-        <v>64555400</v>
+        <v>66183700</v>
       </c>
       <c r="F66" s="3">
-        <v>44755200</v>
+        <v>64987000</v>
       </c>
       <c r="G66" s="3">
-        <v>41668600</v>
+        <v>45054400</v>
       </c>
       <c r="H66" s="3">
-        <v>41056300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>41947200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>41330800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5268,50 +5426,53 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>39614800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>39180900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>39538000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>33427000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>34555600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>33611000</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>35449100</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,28 +5857,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4396700</v>
+        <v>-4852100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4316400</v>
+        <v>-4426100</v>
       </c>
       <c r="F72" s="3">
-        <v>-3676100</v>
+        <v>-4345300</v>
       </c>
       <c r="G72" s="3">
-        <v>-3996600</v>
+        <v>-3700700</v>
       </c>
       <c r="H72" s="3">
-        <v>-3939600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>-4023300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3966000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5730,50 +5904,53 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,28 +6213,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13197100</v>
+        <v>12577700</v>
       </c>
       <c r="E76" s="3">
-        <v>13184100</v>
+        <v>13285300</v>
       </c>
       <c r="F76" s="3">
-        <v>12403700</v>
+        <v>13272200</v>
       </c>
       <c r="G76" s="3">
-        <v>8561700</v>
+        <v>12486700</v>
       </c>
       <c r="H76" s="3">
-        <v>7796100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>8618900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7848200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6074,50 +6260,53 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>6699700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>6614700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>6943100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>6216400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>8392700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>8193200</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>9096100</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>516700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>254100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>111800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>566900</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>520200</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>255800</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>317900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>231100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>-150100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>331400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>389900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>175100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>176900</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>223400</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>146800</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>234600</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,31 +6609,32 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3423000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1339100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2280000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>1546700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3445900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1348100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2295300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -6443,62 +6642,65 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>2101000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>2289900</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1109700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1095400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>979700</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>839800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>861100</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>969400</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,31 +7141,34 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>4439600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1115900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3389200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>1733200</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4469300</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1123300</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3411900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6959,62 +7176,65 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>2783500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>3486400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>629500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2665100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>652700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2223600</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>526500</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>2396300</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1340100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1588100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1195500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1108000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-620800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1004500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-604100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1642100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-791200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-637800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-560400</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-403100</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,31 +7530,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>4871400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>4478100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-916000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-699800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>4903900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4508000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-922100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -7335,62 +7565,65 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6267700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-288300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-476600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-676600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-457400</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-957800</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,31 +7654,32 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1024300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1066300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1073500</v>
       </c>
       <c r="G96" s="3">
-        <v>-199400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-200800</v>
       </c>
       <c r="I96" s="3">
-        <v>-575400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-579200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7454,11 +7688,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-282900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7466,49 +7700,52 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-746300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-729800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-49100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-610200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-60600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-590700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-24200</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,31 +8008,34 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-10952100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-8975100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>2471100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-2302500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-11025300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-9035100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2487600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -7797,85 +8043,88 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>3593400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>717700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>671000</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-921700</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>827700</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>49200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-432700</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>68100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>49500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-435600</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>68500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -7883,85 +8132,88 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-26200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>6900</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-6500</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-11300</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>3900</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-32100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
         <v>17400</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1591900</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-3813800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>5012300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-1320200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1602500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-3839300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5045800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -7969,58 +8221,61 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>83000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>1355300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-986400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>1978800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>1762000</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-886000</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>2335900</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VEOEY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,410 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24669000</v>
+        <v>11290200</v>
       </c>
       <c r="E8" s="3">
-        <v>13016800</v>
+        <v>24689500</v>
       </c>
       <c r="F8" s="3">
-        <v>24597900</v>
+        <v>13027600</v>
       </c>
       <c r="G8" s="3">
-        <v>11401900</v>
+        <v>24618300</v>
       </c>
       <c r="H8" s="3">
-        <v>21894000</v>
+        <v>11411400</v>
       </c>
       <c r="I8" s="3">
-        <v>10770500</v>
+        <v>21912200</v>
       </c>
       <c r="J8" s="3">
+        <v>10779500</v>
+      </c>
+      <c r="K8" s="3">
         <v>16113000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7228000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14436500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7201800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13880700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6531500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13540400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7281800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15654700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7889100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15674200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8116200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15807600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6867200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13942400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7068900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14172900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6513000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13673100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7267100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>14498800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6730500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>20533200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20400400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>18016700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20550200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20417300</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18031600</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>13423800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11883000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11479900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11580300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>13043100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>12935200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>13105100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>11413600</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>11652900</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>11155500</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <v>12109800</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>4135800</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4197500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3877400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4139300</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4201000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3880600</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2689200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2553500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2400800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1960000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2611600</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2739000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2702500</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2528800</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2520000</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2517600</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <v>2388900</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>208700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>282300</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>208900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>240700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>340000</v>
+        <v>282500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>79100</v>
+        <v>340300</v>
       </c>
       <c r="J14" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K14" s="3">
         <v>185500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>83200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>188500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>69000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>291200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>127100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>137300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>66400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>279300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>85900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>188000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>81300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>263200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>68900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>195900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>75200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>236500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>80700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>247600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>76400</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="3">
         <v>77900</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,77 +1397,80 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>795700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>878900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>558400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>690700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>584100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>641500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>617000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>565900</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>548700</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>1376200</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
         <v>473000</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="3">
         <v>472000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>23151500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>23425600</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>20674500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23170700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>23445000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20691700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>15547800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>13705000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>13312500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>13265100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>14983000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>14803600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>15036900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>13175700</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>13524100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>13015600</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <v>13922000</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1517500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1172300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1219500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1518800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1173300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>565100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>731500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>568300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>275200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>671700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>870700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>770700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>766700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>648700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>657500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <v>576800</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-31400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>37800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-222100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-222300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-83400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>87100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-11400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-75100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>258300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-94900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-50900</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-48800</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-59900</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-54800</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>3032800</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>4656100</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>2345500</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>2777000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>2657900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>3220000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1976100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1771200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1695400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1426000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>1433700</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>1491400</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>352800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>274600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>311100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>353100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>274800</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>311400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>175900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>164100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>176600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>207900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>211100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>237900</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>235900</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>182500</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>199800</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>199700</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
         <v>210300</v>
       </c>
-      <c r="AE22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1133300</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>935600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>686200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1134300</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>936400</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>686800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>305800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>654500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>380200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>718900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>628600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>439900</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>533200</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>397900</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
         <v>311600</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>320900</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>201600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>253500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>201800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>253700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>138500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>230600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>98200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>83500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>225400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>116300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>89100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>137000</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>124700</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>119000</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="3">
         <v>77100</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>812400</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>733900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>432800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>813100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>734500</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>433100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>167300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>423800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>296700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>493500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>512200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>350800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>396200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>275400</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>278800</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="3">
         <v>234500</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>574600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>603200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>258000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>575100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>603700</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>258200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>107500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>322800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>242200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-140300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>439800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>408600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>177200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>226300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>219000</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>130400</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="3">
         <v>287900</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,97 +2543,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>-7700</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-83000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-4900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-11100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-108400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-18700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-49400</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>4400</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3">
         <v>16400</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-53300</v>
       </c>
-      <c r="AE29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>31400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-37800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>222100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>222300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>83400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-87100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>11400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>75100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-258300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>94900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>50900</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>48800</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>59900</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="3">
         <v>54800</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>566900</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>520200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>255800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>567300</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>520600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>256100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>112500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>317900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>231100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>331400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>389900</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>175100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>176900</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>223400</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>146800</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="3">
         <v>234600</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>566900</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>520200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>255800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>567300</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>520600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>256100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>112500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>317900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>231100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>331400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>389900</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>175100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>176900</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>223400</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>146800</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="3">
         <v>234600</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,28 +3354,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8564000</v>
+        <v>8571100</v>
       </c>
       <c r="E41" s="3">
-        <v>9770100</v>
+        <v>9778200</v>
       </c>
       <c r="F41" s="3">
-        <v>7778300</v>
+        <v>7784800</v>
       </c>
       <c r="G41" s="3">
-        <v>11403300</v>
+        <v>11412800</v>
       </c>
       <c r="H41" s="3">
-        <v>5912600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6331100</v>
+        <v>5917500</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3316,70 +3402,73 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>6597700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>4512100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>5389900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3244600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>7028000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>5414300</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <v>6481100</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2826500</v>
+        <v>2828800</v>
       </c>
       <c r="E42" s="3">
-        <v>2597800</v>
+        <v>2600000</v>
       </c>
       <c r="F42" s="3">
-        <v>2982100</v>
+        <v>2984600</v>
       </c>
       <c r="G42" s="3">
-        <v>1788800</v>
+        <v>1790300</v>
       </c>
       <c r="H42" s="3">
-        <v>1621800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1350800</v>
+        <v>1623200</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3405,70 +3494,73 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>930900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>991700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>628700</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>803700</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>675300</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>791700</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>500400</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15569500</v>
+        <v>15582400</v>
       </c>
       <c r="E43" s="3">
-        <v>15755800</v>
+        <v>15768800</v>
       </c>
       <c r="F43" s="3">
-        <v>14988500</v>
+        <v>15001000</v>
       </c>
       <c r="G43" s="3">
-        <v>10857600</v>
+        <v>10866600</v>
       </c>
       <c r="H43" s="3">
-        <v>10324600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>9872000</v>
+        <v>10333200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3494,70 +3586,73 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>10547700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>10842600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>10658000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>10169400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>9525100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>9987800</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <v>10195700</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1701600</v>
+        <v>1703000</v>
       </c>
       <c r="E44" s="3">
-        <v>1611200</v>
+        <v>1612500</v>
       </c>
       <c r="F44" s="3">
-        <v>1561400</v>
+        <v>1562700</v>
       </c>
       <c r="G44" s="3">
-        <v>885000</v>
+        <v>885700</v>
       </c>
       <c r="H44" s="3">
-        <v>849900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>864800</v>
+        <v>850600</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3583,70 +3678,73 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>894200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>990100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>967600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>834000</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>809600</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>771300</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
         <v>844700</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>337900</v>
+        <v>338200</v>
       </c>
       <c r="E45" s="3">
-        <v>1393500</v>
+        <v>1394700</v>
       </c>
       <c r="F45" s="3">
-        <v>1694400</v>
+        <v>1695900</v>
       </c>
       <c r="G45" s="3">
-        <v>480900</v>
+        <v>481300</v>
       </c>
       <c r="H45" s="3">
-        <v>467200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>683400</v>
+        <v>467600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3672,70 +3770,73 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>140900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1057600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>486200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>839600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>625200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>286600</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3">
         <v>155200</v>
       </c>
-      <c r="AE45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28999500</v>
+        <v>29023500</v>
       </c>
       <c r="E46" s="3">
-        <v>31128400</v>
+        <v>31154300</v>
       </c>
       <c r="F46" s="3">
-        <v>29004900</v>
+        <v>29029000</v>
       </c>
       <c r="G46" s="3">
-        <v>25415500</v>
+        <v>25436600</v>
       </c>
       <c r="H46" s="3">
-        <v>19176200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>19102200</v>
+        <v>19192100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3761,70 +3862,73 @@
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>19111500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>18394100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>18130400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>15891300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>18663300</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>17251600</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
         <v>18177000</v>
       </c>
-      <c r="AE46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3689800</v>
+        <v>3692900</v>
       </c>
       <c r="E47" s="3">
-        <v>4091700</v>
+        <v>4095100</v>
       </c>
       <c r="F47" s="3">
-        <v>4179500</v>
+        <v>4183000</v>
       </c>
       <c r="G47" s="3">
-        <v>7573100</v>
+        <v>7579400</v>
       </c>
       <c r="H47" s="3">
-        <v>7623200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6615500</v>
+        <v>7629500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3850,70 +3954,73 @@
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>4221000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>4293700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>4312300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>3978200</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4431700</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>4581000</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
         <v>5157400</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20480900</v>
+        <v>20497900</v>
       </c>
       <c r="E48" s="3">
-        <v>20127500</v>
+        <v>20144200</v>
       </c>
       <c r="F48" s="3">
-        <v>19510700</v>
+        <v>19526900</v>
       </c>
       <c r="G48" s="3">
-        <v>11127500</v>
+        <v>11136800</v>
       </c>
       <c r="H48" s="3">
-        <v>10714200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10565700</v>
+        <v>10723100</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3939,70 +4046,73 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>10550800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>10504100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>20596800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>8036000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>16368500</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>7829600</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>8424700</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21842200</v>
+        <v>21860400</v>
       </c>
       <c r="E49" s="3">
-        <v>21759500</v>
+        <v>21777600</v>
       </c>
       <c r="F49" s="3">
-        <v>23256100</v>
+        <v>23275400</v>
       </c>
       <c r="G49" s="3">
-        <v>12180700</v>
+        <v>12190800</v>
       </c>
       <c r="H49" s="3">
-        <v>11855500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11713800</v>
+        <v>11865300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -4028,50 +4138,53 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>11311300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>11282000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>16837300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>10573400</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>10555800</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>10748100</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <v>11313800</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,28 +4364,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2340000</v>
+        <v>2342000</v>
       </c>
       <c r="E52" s="3">
-        <v>2361800</v>
+        <v>2363800</v>
       </c>
       <c r="F52" s="3">
-        <v>2308000</v>
+        <v>2310000</v>
       </c>
       <c r="G52" s="3">
-        <v>1244200</v>
+        <v>1245300</v>
       </c>
       <c r="H52" s="3">
-        <v>1197100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1181800</v>
+        <v>1198100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4295,50 +4414,53 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1120000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1321700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1271700</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1164600</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1113200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1394000</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>1472300</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,28 +4548,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77352500</v>
+        <v>77416700</v>
       </c>
       <c r="E54" s="3">
-        <v>79469000</v>
+        <v>79534900</v>
       </c>
       <c r="F54" s="3">
-        <v>78259200</v>
+        <v>78324200</v>
       </c>
       <c r="G54" s="3">
-        <v>57541100</v>
+        <v>57588900</v>
       </c>
       <c r="H54" s="3">
-        <v>50566100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>49179000</v>
+        <v>50608100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4473,50 +4598,53 @@
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>46314600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>45795600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>46481100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>39643400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>42948300</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>41804200</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
         <v>44545200</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,28 +4710,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20426500</v>
+        <v>20443500</v>
       </c>
       <c r="E57" s="3">
-        <v>21113100</v>
+        <v>21130600</v>
       </c>
       <c r="F57" s="3">
-        <v>19302100</v>
+        <v>19318100</v>
       </c>
       <c r="G57" s="3">
-        <v>14688400</v>
+        <v>14700600</v>
       </c>
       <c r="H57" s="3">
-        <v>12850800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>12847000</v>
+        <v>12861500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4628,70 +4758,73 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>13271000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>11976600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>13011200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>11186000</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>11352300</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>10772200</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <v>11972700</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8690400</v>
+        <v>8697600</v>
       </c>
       <c r="E58" s="3">
-        <v>7839700</v>
+        <v>7846200</v>
       </c>
       <c r="F58" s="3">
-        <v>8325700</v>
+        <v>8332600</v>
       </c>
       <c r="G58" s="3">
-        <v>10057000</v>
+        <v>10065300</v>
       </c>
       <c r="H58" s="3">
-        <v>9284900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8474600</v>
+        <v>9292600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4717,70 +4850,73 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>7013500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5985500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>6191900</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5417800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5403400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>5262100</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>5876700</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1822300</v>
+        <v>1823800</v>
       </c>
       <c r="E59" s="3">
-        <v>2707000</v>
+        <v>2709200</v>
       </c>
       <c r="F59" s="3">
-        <v>1768300</v>
+        <v>1769700</v>
       </c>
       <c r="G59" s="3">
-        <v>1074100</v>
+        <v>1075000</v>
       </c>
       <c r="H59" s="3">
-        <v>1043600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>847800</v>
+        <v>1044400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4806,70 +4942,73 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>997600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>1175200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>868100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>991500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1068400</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>875500</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
         <v>935800</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30939100</v>
+        <v>30964800</v>
       </c>
       <c r="E60" s="3">
-        <v>31659700</v>
+        <v>31686000</v>
       </c>
       <c r="F60" s="3">
-        <v>29396000</v>
+        <v>29420400</v>
       </c>
       <c r="G60" s="3">
-        <v>25819500</v>
+        <v>25840900</v>
       </c>
       <c r="H60" s="3">
-        <v>23179300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>22169400</v>
+        <v>23198500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4895,70 +5034,73 @@
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>21282100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>19137300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>20071300</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>17595300</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>17824000</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>16909800</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
         <v>18785200</v>
       </c>
-      <c r="AE60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22555400</v>
+        <v>22574100</v>
       </c>
       <c r="E61" s="3">
-        <v>23143700</v>
+        <v>23162900</v>
       </c>
       <c r="F61" s="3">
-        <v>24913200</v>
+        <v>24933800</v>
       </c>
       <c r="G61" s="3">
-        <v>12749700</v>
+        <v>12760300</v>
       </c>
       <c r="H61" s="3">
-        <v>12595300</v>
+        <v>12605700</v>
       </c>
       <c r="I61" s="3">
-        <v>13153600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4985,69 +5127,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>12177000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>13789800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>13099000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>9974300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>10611100</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>10132200</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>9794300</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8366900</v>
+        <v>8373800</v>
       </c>
       <c r="E62" s="3">
-        <v>8548300</v>
+        <v>8555400</v>
       </c>
       <c r="F62" s="3">
-        <v>7451600</v>
+        <v>7457700</v>
       </c>
       <c r="G62" s="3">
-        <v>5128000</v>
+        <v>5132300</v>
       </c>
       <c r="H62" s="3">
-        <v>4918000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4816000</v>
+        <v>4922100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -5073,50 +5218,53 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>4863300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>4874200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>5005400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>4637600</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>4826000</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>5316800</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
         <v>5546400</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,28 +5536,31 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64774800</v>
+        <v>64828500</v>
       </c>
       <c r="E66" s="3">
-        <v>66183700</v>
+        <v>66238600</v>
       </c>
       <c r="F66" s="3">
-        <v>64987000</v>
+        <v>65041000</v>
       </c>
       <c r="G66" s="3">
-        <v>45054400</v>
+        <v>45091800</v>
       </c>
       <c r="H66" s="3">
-        <v>41947200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>41330800</v>
+        <v>41982000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5429,50 +5586,53 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>39614800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>39180900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>39538000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>33427000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>34555600</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>33611000</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="3">
         <v>35449100</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,28 +6030,31 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4852100</v>
+        <v>-4856100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4426100</v>
+        <v>-4429700</v>
       </c>
       <c r="F72" s="3">
-        <v>-4345300</v>
+        <v>-4348900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3700700</v>
+        <v>-3703800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4023300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-3966000</v>
+        <v>-4026700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5907,50 +6080,53 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3961300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4490900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-4199200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-4276200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3625300</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3922400</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-3796800</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,28 +6398,31 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12577700</v>
+        <v>12588200</v>
       </c>
       <c r="E76" s="3">
-        <v>13285300</v>
+        <v>13296300</v>
       </c>
       <c r="F76" s="3">
-        <v>13272200</v>
+        <v>13283200</v>
       </c>
       <c r="G76" s="3">
-        <v>12486700</v>
+        <v>12497000</v>
       </c>
       <c r="H76" s="3">
-        <v>8618900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>7848200</v>
+        <v>8626100</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6263,50 +6448,53 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>6699700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>6614700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>6943100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>6216400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>8392700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>8193200</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="3">
         <v>9096100</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>566900</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>520200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>255800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>567300</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>520600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>256100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>112500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>317900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>231100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-150100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>331400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>389900</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>175100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>176900</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>223400</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>146800</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="3">
         <v>234600</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1546700</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>3445900</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>1348100</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>2295300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>2101000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>2289900</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1109700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1095400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>979700</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>839800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>861100</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
         <v>969400</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1733200</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>4469300</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>1123300</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>3411900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>2783500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>3486400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>629500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>2665100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>652700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>2223600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>526500</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="3">
         <v>2396300</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7290,73 +7510,76 @@
         <v>-1004500</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-604100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1642100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1892400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-791200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1074000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-637800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1117500</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-560400</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-403100</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-699800</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>4903900</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>4508000</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-922100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6267700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-288300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-476600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1111300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-676600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1137800</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-457400</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-957800</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,35 +7887,36 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1024300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1073500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-200800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-579200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7691,11 +7924,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-282900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7703,49 +7936,52 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-746300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-729800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-49100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-610200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-60600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-590700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-24200</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2302500</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-11025300</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-9035100</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>2487600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>3593400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1838500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1146300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>717700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3455700</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>671000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-921700</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
         <v>827700</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-51100</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>49500</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>-435600</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>68500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-26200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>6900</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-6500</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>3900</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-32100</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD101" s="3">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="3">
         <v>17400</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1320200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-1602500</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-3839300</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>5045800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>83000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>1355300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-986400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>1978800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-3751400</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>1762000</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-886000</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="3">
         <v>2335900</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
